--- a/MBDOU_INF/templates/plan_template.xlsx
+++ b/MBDOU_INF/templates/plan_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MBDOU\MBDOU_INF\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D75470-618D-43AD-A25B-110F4685AC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1592110-BBA3-4308-B95A-6B4C291E86AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="13560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Листы1-5'!$25:$31</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Листы6-7'!$3:$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Листы1-5'!$A$1:$CU$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Листы6-7'!$A$1:$CU$76</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Расшифровка!$A$1:$AJ$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="150">
   <si>
     <t>КОДЫ</t>
   </si>
@@ -510,13 +511,7 @@
     <t>января</t>
   </si>
   <si>
-    <t>З.А.Ельсаева</t>
-  </si>
-  <si>
     <t xml:space="preserve">Заместитель начальника </t>
-  </si>
-  <si>
-    <t>Заместитель начальника ДДО Мэрии г. Грозного</t>
   </si>
   <si>
     <r>
@@ -685,6 +680,9 @@
   </si>
   <si>
     <t>МБДОУ №136 "Ласточка" г.Грозного</t>
+  </si>
+  <si>
+    <t>З.А. Ельсаева</t>
   </si>
 </sst>
 </file>
@@ -1357,13 +1355,22 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1387,15 +1394,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1480,10 +1478,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1936,7 +1934,7 @@
   </sheetPr>
   <dimension ref="A1:CU31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="BU31" sqref="BU31:CC31"/>
     </sheetView>
   </sheetViews>
@@ -1989,7 +1987,7 @@
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BQ3" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BR3" s="56"/>
       <c r="BS3" s="56"/>
@@ -2202,7 +2200,7 @@
         <v>9</v>
       </c>
       <c r="BR10" s="39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="BS10" s="39"/>
       <c r="BT10" s="39"/>
@@ -2227,7 +2225,7 @@
       </c>
       <c r="CI10" s="40"/>
       <c r="CJ10" s="41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="CK10" s="41"/>
       <c r="CL10" s="41"/>
@@ -2280,7 +2278,7 @@
         <v>15</v>
       </c>
       <c r="BO12" s="38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="BP12" s="38"/>
       <c r="BQ12" s="38"/>
@@ -2349,7 +2347,7 @@
         <v>18</v>
       </c>
       <c r="AJ13" s="38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK13" s="38"/>
       <c r="AL13" s="38"/>
@@ -2357,7 +2355,7 @@
         <v>69</v>
       </c>
       <c r="BE13" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="BF13" s="38"/>
       <c r="BG13" s="38"/>
@@ -2365,7 +2363,7 @@
         <v>17</v>
       </c>
       <c r="BK13" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BL13" s="38"/>
       <c r="BM13" s="38"/>
@@ -2424,7 +2422,7 @@
         <v>4</v>
       </c>
       <c r="AN15" s="39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AO15" s="39"/>
       <c r="AP15" s="39"/>
@@ -2449,7 +2447,7 @@
       </c>
       <c r="BE15" s="40"/>
       <c r="BF15" s="41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="BG15" s="41"/>
       <c r="BH15" s="41"/>
@@ -2459,20 +2457,20 @@
       <c r="CF15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="CH15" s="46"/>
-      <c r="CI15" s="47"/>
-      <c r="CJ15" s="47"/>
-      <c r="CK15" s="47"/>
-      <c r="CL15" s="47"/>
-      <c r="CM15" s="47"/>
-      <c r="CN15" s="47"/>
-      <c r="CO15" s="47"/>
-      <c r="CP15" s="47"/>
-      <c r="CQ15" s="47"/>
-      <c r="CR15" s="47"/>
-      <c r="CS15" s="47"/>
-      <c r="CT15" s="47"/>
-      <c r="CU15" s="48"/>
+      <c r="CH15" s="49"/>
+      <c r="CI15" s="50"/>
+      <c r="CJ15" s="50"/>
+      <c r="CK15" s="50"/>
+      <c r="CL15" s="50"/>
+      <c r="CM15" s="50"/>
+      <c r="CN15" s="50"/>
+      <c r="CO15" s="50"/>
+      <c r="CP15" s="50"/>
+      <c r="CQ15" s="50"/>
+      <c r="CR15" s="50"/>
+      <c r="CS15" s="50"/>
+      <c r="CT15" s="50"/>
+      <c r="CU15" s="51"/>
     </row>
     <row r="16" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -2481,20 +2479,20 @@
       <c r="CF16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="CH16" s="49"/>
-      <c r="CI16" s="50"/>
-      <c r="CJ16" s="50"/>
-      <c r="CK16" s="50"/>
-      <c r="CL16" s="50"/>
-      <c r="CM16" s="50"/>
-      <c r="CN16" s="50"/>
-      <c r="CO16" s="50"/>
-      <c r="CP16" s="50"/>
-      <c r="CQ16" s="50"/>
-      <c r="CR16" s="50"/>
-      <c r="CS16" s="50"/>
-      <c r="CT16" s="50"/>
-      <c r="CU16" s="51"/>
+      <c r="CH16" s="52"/>
+      <c r="CI16" s="53"/>
+      <c r="CJ16" s="53"/>
+      <c r="CK16" s="53"/>
+      <c r="CL16" s="53"/>
+      <c r="CM16" s="53"/>
+      <c r="CN16" s="53"/>
+      <c r="CO16" s="53"/>
+      <c r="CP16" s="53"/>
+      <c r="CQ16" s="53"/>
+      <c r="CR16" s="53"/>
+      <c r="CS16" s="53"/>
+      <c r="CT16" s="53"/>
+      <c r="CU16" s="54"/>
     </row>
     <row r="17" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
@@ -2556,20 +2554,20 @@
       <c r="CF17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="CH17" s="49"/>
-      <c r="CI17" s="50"/>
-      <c r="CJ17" s="50"/>
-      <c r="CK17" s="50"/>
-      <c r="CL17" s="50"/>
-      <c r="CM17" s="50"/>
-      <c r="CN17" s="50"/>
-      <c r="CO17" s="50"/>
-      <c r="CP17" s="50"/>
-      <c r="CQ17" s="50"/>
-      <c r="CR17" s="50"/>
-      <c r="CS17" s="50"/>
-      <c r="CT17" s="50"/>
-      <c r="CU17" s="51"/>
+      <c r="CH17" s="52"/>
+      <c r="CI17" s="53"/>
+      <c r="CJ17" s="53"/>
+      <c r="CK17" s="53"/>
+      <c r="CL17" s="53"/>
+      <c r="CM17" s="53"/>
+      <c r="CN17" s="53"/>
+      <c r="CO17" s="53"/>
+      <c r="CP17" s="53"/>
+      <c r="CQ17" s="53"/>
+      <c r="CR17" s="53"/>
+      <c r="CS17" s="53"/>
+      <c r="CT17" s="53"/>
+      <c r="CU17" s="54"/>
     </row>
     <row r="18" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AH18" s="9"/>
@@ -2613,20 +2611,20 @@
       <c r="CF18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="CH18" s="49"/>
-      <c r="CI18" s="50"/>
-      <c r="CJ18" s="50"/>
-      <c r="CK18" s="50"/>
-      <c r="CL18" s="50"/>
-      <c r="CM18" s="50"/>
-      <c r="CN18" s="50"/>
-      <c r="CO18" s="50"/>
-      <c r="CP18" s="50"/>
-      <c r="CQ18" s="50"/>
-      <c r="CR18" s="50"/>
-      <c r="CS18" s="50"/>
-      <c r="CT18" s="50"/>
-      <c r="CU18" s="51"/>
+      <c r="CH18" s="52"/>
+      <c r="CI18" s="53"/>
+      <c r="CJ18" s="53"/>
+      <c r="CK18" s="53"/>
+      <c r="CL18" s="53"/>
+      <c r="CM18" s="53"/>
+      <c r="CN18" s="53"/>
+      <c r="CO18" s="53"/>
+      <c r="CP18" s="53"/>
+      <c r="CQ18" s="53"/>
+      <c r="CR18" s="53"/>
+      <c r="CS18" s="53"/>
+      <c r="CT18" s="53"/>
+      <c r="CU18" s="54"/>
     </row>
     <row r="19" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AH19" s="9"/>
@@ -2671,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="CH19" s="65" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="CI19" s="66"/>
       <c r="CJ19" s="66"/>
@@ -2692,7 +2690,7 @@
         <v>25</v>
       </c>
       <c r="I20" s="79" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J20" s="79"/>
       <c r="K20" s="79"/>
@@ -2760,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="CH20" s="65" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="CI20" s="66"/>
       <c r="CJ20" s="66"/>
@@ -2801,107 +2799,107 @@
       <c r="CU21" s="82"/>
     </row>
     <row r="23" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="45"/>
-      <c r="AI23" s="45"/>
-      <c r="AJ23" s="45"/>
-      <c r="AK23" s="45"/>
-      <c r="AL23" s="45"/>
-      <c r="AM23" s="45"/>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="45"/>
-      <c r="AP23" s="45"/>
-      <c r="AQ23" s="45"/>
-      <c r="AR23" s="45"/>
-      <c r="AS23" s="45"/>
-      <c r="AT23" s="45"/>
-      <c r="AU23" s="45"/>
-      <c r="AV23" s="45"/>
-      <c r="AW23" s="45"/>
-      <c r="AX23" s="45"/>
-      <c r="AY23" s="45"/>
-      <c r="AZ23" s="45"/>
-      <c r="BA23" s="45"/>
-      <c r="BB23" s="45"/>
-      <c r="BC23" s="45"/>
-      <c r="BD23" s="45"/>
-      <c r="BE23" s="45"/>
-      <c r="BF23" s="45"/>
-      <c r="BG23" s="45"/>
-      <c r="BH23" s="45"/>
-      <c r="BI23" s="45"/>
-      <c r="BJ23" s="45"/>
-      <c r="BK23" s="45"/>
-      <c r="BL23" s="45"/>
-      <c r="BM23" s="45"/>
-      <c r="BN23" s="45"/>
-      <c r="BO23" s="45"/>
-      <c r="BP23" s="45"/>
-      <c r="BQ23" s="45"/>
-      <c r="BR23" s="45"/>
-      <c r="BS23" s="45"/>
-      <c r="BT23" s="45"/>
-      <c r="BU23" s="45"/>
-      <c r="BV23" s="45"/>
-      <c r="BW23" s="45"/>
-      <c r="BX23" s="45"/>
-      <c r="BY23" s="45"/>
-      <c r="BZ23" s="45"/>
-      <c r="CA23" s="45"/>
-      <c r="CB23" s="45"/>
-      <c r="CC23" s="45"/>
-      <c r="CD23" s="45"/>
-      <c r="CE23" s="45"/>
-      <c r="CF23" s="45"/>
-      <c r="CG23" s="45"/>
-      <c r="CH23" s="45"/>
-      <c r="CI23" s="45"/>
-      <c r="CJ23" s="45"/>
-      <c r="CK23" s="45"/>
-      <c r="CL23" s="45"/>
-      <c r="CM23" s="45"/>
-      <c r="CN23" s="45"/>
-      <c r="CO23" s="45"/>
-      <c r="CP23" s="45"/>
-      <c r="CQ23" s="45"/>
-      <c r="CR23" s="45"/>
-      <c r="CS23" s="45"/>
-      <c r="CT23" s="45"/>
-      <c r="CU23" s="45"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="48"/>
+      <c r="AJ23" s="48"/>
+      <c r="AK23" s="48"/>
+      <c r="AL23" s="48"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="48"/>
+      <c r="AO23" s="48"/>
+      <c r="AP23" s="48"/>
+      <c r="AQ23" s="48"/>
+      <c r="AR23" s="48"/>
+      <c r="AS23" s="48"/>
+      <c r="AT23" s="48"/>
+      <c r="AU23" s="48"/>
+      <c r="AV23" s="48"/>
+      <c r="AW23" s="48"/>
+      <c r="AX23" s="48"/>
+      <c r="AY23" s="48"/>
+      <c r="AZ23" s="48"/>
+      <c r="BA23" s="48"/>
+      <c r="BB23" s="48"/>
+      <c r="BC23" s="48"/>
+      <c r="BD23" s="48"/>
+      <c r="BE23" s="48"/>
+      <c r="BF23" s="48"/>
+      <c r="BG23" s="48"/>
+      <c r="BH23" s="48"/>
+      <c r="BI23" s="48"/>
+      <c r="BJ23" s="48"/>
+      <c r="BK23" s="48"/>
+      <c r="BL23" s="48"/>
+      <c r="BM23" s="48"/>
+      <c r="BN23" s="48"/>
+      <c r="BO23" s="48"/>
+      <c r="BP23" s="48"/>
+      <c r="BQ23" s="48"/>
+      <c r="BR23" s="48"/>
+      <c r="BS23" s="48"/>
+      <c r="BT23" s="48"/>
+      <c r="BU23" s="48"/>
+      <c r="BV23" s="48"/>
+      <c r="BW23" s="48"/>
+      <c r="BX23" s="48"/>
+      <c r="BY23" s="48"/>
+      <c r="BZ23" s="48"/>
+      <c r="CA23" s="48"/>
+      <c r="CB23" s="48"/>
+      <c r="CC23" s="48"/>
+      <c r="CD23" s="48"/>
+      <c r="CE23" s="48"/>
+      <c r="CF23" s="48"/>
+      <c r="CG23" s="48"/>
+      <c r="CH23" s="48"/>
+      <c r="CI23" s="48"/>
+      <c r="CJ23" s="48"/>
+      <c r="CK23" s="48"/>
+      <c r="CL23" s="48"/>
+      <c r="CM23" s="48"/>
+      <c r="CN23" s="48"/>
+      <c r="CO23" s="48"/>
+      <c r="CP23" s="48"/>
+      <c r="CQ23" s="48"/>
+      <c r="CR23" s="48"/>
+      <c r="CS23" s="48"/>
+      <c r="CT23" s="48"/>
+      <c r="CU23" s="48"/>
     </row>
     <row r="25" spans="1:99" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="68" t="s">
@@ -2953,28 +2951,28 @@
       <c r="AS25" s="69"/>
       <c r="AT25" s="69"/>
       <c r="AU25" s="70"/>
-      <c r="AV25" s="53" t="s">
+      <c r="AV25" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AW25" s="53"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="54"/>
-      <c r="AZ25" s="52" t="s">
+      <c r="AW25" s="46"/>
+      <c r="AX25" s="46"/>
+      <c r="AY25" s="47"/>
+      <c r="AZ25" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="BA25" s="53"/>
-      <c r="BB25" s="53"/>
-      <c r="BC25" s="53"/>
-      <c r="BD25" s="53"/>
-      <c r="BE25" s="54"/>
-      <c r="BF25" s="52" t="s">
+      <c r="BA25" s="46"/>
+      <c r="BB25" s="46"/>
+      <c r="BC25" s="46"/>
+      <c r="BD25" s="46"/>
+      <c r="BE25" s="47"/>
+      <c r="BF25" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="BG25" s="53"/>
-      <c r="BH25" s="53"/>
-      <c r="BI25" s="53"/>
-      <c r="BJ25" s="53"/>
-      <c r="BK25" s="54"/>
+      <c r="BG25" s="46"/>
+      <c r="BH25" s="46"/>
+      <c r="BI25" s="46"/>
+      <c r="BJ25" s="46"/>
+      <c r="BK25" s="47"/>
       <c r="BL25" s="77" t="s">
         <v>34</v>
       </c>
@@ -3062,72 +3060,72 @@
       <c r="AS26" s="72"/>
       <c r="AT26" s="72"/>
       <c r="AU26" s="73"/>
-      <c r="AV26" s="43" t="s">
+      <c r="AV26" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="AW26" s="43"/>
-      <c r="AX26" s="43"/>
-      <c r="AY26" s="44"/>
-      <c r="AZ26" s="42" t="s">
+      <c r="AW26" s="42"/>
+      <c r="AX26" s="42"/>
+      <c r="AY26" s="43"/>
+      <c r="AZ26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="BA26" s="43"/>
-      <c r="BB26" s="43"/>
-      <c r="BC26" s="43"/>
-      <c r="BD26" s="43"/>
-      <c r="BE26" s="44"/>
-      <c r="BF26" s="42" t="s">
+      <c r="BA26" s="42"/>
+      <c r="BB26" s="42"/>
+      <c r="BC26" s="42"/>
+      <c r="BD26" s="42"/>
+      <c r="BE26" s="43"/>
+      <c r="BF26" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="BG26" s="43"/>
-      <c r="BH26" s="43"/>
-      <c r="BI26" s="43"/>
-      <c r="BJ26" s="43"/>
-      <c r="BK26" s="44"/>
-      <c r="BL26" s="42" t="s">
+      <c r="BG26" s="42"/>
+      <c r="BH26" s="42"/>
+      <c r="BI26" s="42"/>
+      <c r="BJ26" s="42"/>
+      <c r="BK26" s="43"/>
+      <c r="BL26" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM26" s="42"/>
+      <c r="BN26" s="42"/>
+      <c r="BO26" s="42"/>
+      <c r="BP26" s="42"/>
+      <c r="BQ26" s="42"/>
+      <c r="BR26" s="42"/>
+      <c r="BS26" s="42"/>
+      <c r="BT26" s="43"/>
+      <c r="BU26" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="BV26" s="42"/>
+      <c r="BW26" s="42"/>
+      <c r="BX26" s="42"/>
+      <c r="BY26" s="42"/>
+      <c r="BZ26" s="42"/>
+      <c r="CA26" s="42"/>
+      <c r="CB26" s="42"/>
+      <c r="CC26" s="43"/>
+      <c r="CD26" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="BM26" s="43"/>
-      <c r="BN26" s="43"/>
-      <c r="BO26" s="43"/>
-      <c r="BP26" s="43"/>
-      <c r="BQ26" s="43"/>
-      <c r="BR26" s="43"/>
-      <c r="BS26" s="43"/>
-      <c r="BT26" s="44"/>
-      <c r="BU26" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="BV26" s="43"/>
-      <c r="BW26" s="43"/>
-      <c r="BX26" s="43"/>
-      <c r="BY26" s="43"/>
-      <c r="BZ26" s="43"/>
-      <c r="CA26" s="43"/>
-      <c r="CB26" s="43"/>
-      <c r="CC26" s="44"/>
-      <c r="CD26" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="CE26" s="43"/>
-      <c r="CF26" s="43"/>
-      <c r="CG26" s="43"/>
-      <c r="CH26" s="43"/>
-      <c r="CI26" s="43"/>
-      <c r="CJ26" s="43"/>
-      <c r="CK26" s="43"/>
-      <c r="CL26" s="44"/>
-      <c r="CM26" s="42" t="s">
+      <c r="CE26" s="42"/>
+      <c r="CF26" s="42"/>
+      <c r="CG26" s="42"/>
+      <c r="CH26" s="42"/>
+      <c r="CI26" s="42"/>
+      <c r="CJ26" s="42"/>
+      <c r="CK26" s="42"/>
+      <c r="CL26" s="43"/>
+      <c r="CM26" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="CN26" s="43"/>
-      <c r="CO26" s="43"/>
-      <c r="CP26" s="43"/>
-      <c r="CQ26" s="43"/>
-      <c r="CR26" s="43"/>
-      <c r="CS26" s="43"/>
-      <c r="CT26" s="43"/>
-      <c r="CU26" s="43"/>
+      <c r="CN26" s="42"/>
+      <c r="CO26" s="42"/>
+      <c r="CP26" s="42"/>
+      <c r="CQ26" s="42"/>
+      <c r="CR26" s="42"/>
+      <c r="CS26" s="42"/>
+      <c r="CT26" s="42"/>
+      <c r="CU26" s="42"/>
     </row>
     <row r="27" spans="1:99" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="71"/>
@@ -3177,70 +3175,70 @@
       <c r="AS27" s="72"/>
       <c r="AT27" s="72"/>
       <c r="AU27" s="73"/>
-      <c r="AV27" s="43"/>
-      <c r="AW27" s="43"/>
-      <c r="AX27" s="43"/>
-      <c r="AY27" s="44"/>
-      <c r="AZ27" s="42" t="s">
+      <c r="AV27" s="42"/>
+      <c r="AW27" s="42"/>
+      <c r="AX27" s="42"/>
+      <c r="AY27" s="43"/>
+      <c r="AZ27" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BA27" s="43"/>
-      <c r="BB27" s="43"/>
-      <c r="BC27" s="43"/>
-      <c r="BD27" s="43"/>
-      <c r="BE27" s="44"/>
-      <c r="BF27" s="42" t="s">
+      <c r="BA27" s="42"/>
+      <c r="BB27" s="42"/>
+      <c r="BC27" s="42"/>
+      <c r="BD27" s="42"/>
+      <c r="BE27" s="43"/>
+      <c r="BF27" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="BG27" s="43"/>
-      <c r="BH27" s="43"/>
-      <c r="BI27" s="43"/>
-      <c r="BJ27" s="43"/>
-      <c r="BK27" s="44"/>
-      <c r="BL27" s="42" t="s">
+      <c r="BG27" s="42"/>
+      <c r="BH27" s="42"/>
+      <c r="BI27" s="42"/>
+      <c r="BJ27" s="42"/>
+      <c r="BK27" s="43"/>
+      <c r="BL27" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="BM27" s="43"/>
-      <c r="BN27" s="43"/>
-      <c r="BO27" s="43"/>
-      <c r="BP27" s="43"/>
-      <c r="BQ27" s="43"/>
-      <c r="BR27" s="43"/>
-      <c r="BS27" s="43"/>
-      <c r="BT27" s="44"/>
-      <c r="BU27" s="42" t="s">
+      <c r="BM27" s="42"/>
+      <c r="BN27" s="42"/>
+      <c r="BO27" s="42"/>
+      <c r="BP27" s="42"/>
+      <c r="BQ27" s="42"/>
+      <c r="BR27" s="42"/>
+      <c r="BS27" s="42"/>
+      <c r="BT27" s="43"/>
+      <c r="BU27" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="BV27" s="43"/>
-      <c r="BW27" s="43"/>
-      <c r="BX27" s="43"/>
-      <c r="BY27" s="43"/>
-      <c r="BZ27" s="43"/>
-      <c r="CA27" s="43"/>
-      <c r="CB27" s="43"/>
-      <c r="CC27" s="44"/>
-      <c r="CD27" s="42" t="s">
+      <c r="BV27" s="42"/>
+      <c r="BW27" s="42"/>
+      <c r="BX27" s="42"/>
+      <c r="BY27" s="42"/>
+      <c r="BZ27" s="42"/>
+      <c r="CA27" s="42"/>
+      <c r="CB27" s="42"/>
+      <c r="CC27" s="43"/>
+      <c r="CD27" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="CE27" s="43"/>
-      <c r="CF27" s="43"/>
-      <c r="CG27" s="43"/>
-      <c r="CH27" s="43"/>
-      <c r="CI27" s="43"/>
-      <c r="CJ27" s="43"/>
-      <c r="CK27" s="43"/>
-      <c r="CL27" s="44"/>
-      <c r="CM27" s="42" t="s">
+      <c r="CE27" s="42"/>
+      <c r="CF27" s="42"/>
+      <c r="CG27" s="42"/>
+      <c r="CH27" s="42"/>
+      <c r="CI27" s="42"/>
+      <c r="CJ27" s="42"/>
+      <c r="CK27" s="42"/>
+      <c r="CL27" s="43"/>
+      <c r="CM27" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="CN27" s="43"/>
-      <c r="CO27" s="43"/>
-      <c r="CP27" s="43"/>
-      <c r="CQ27" s="43"/>
-      <c r="CR27" s="43"/>
-      <c r="CS27" s="43"/>
-      <c r="CT27" s="43"/>
-      <c r="CU27" s="43"/>
+      <c r="CN27" s="42"/>
+      <c r="CO27" s="42"/>
+      <c r="CP27" s="42"/>
+      <c r="CQ27" s="42"/>
+      <c r="CR27" s="42"/>
+      <c r="CS27" s="42"/>
+      <c r="CT27" s="42"/>
+      <c r="CU27" s="42"/>
     </row>
     <row r="28" spans="1:99" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="71"/>
@@ -3290,68 +3288,68 @@
       <c r="AS28" s="72"/>
       <c r="AT28" s="72"/>
       <c r="AU28" s="73"/>
-      <c r="AV28" s="43"/>
-      <c r="AW28" s="43"/>
-      <c r="AX28" s="43"/>
-      <c r="AY28" s="44"/>
-      <c r="AZ28" s="42" t="s">
+      <c r="AV28" s="42"/>
+      <c r="AW28" s="42"/>
+      <c r="AX28" s="42"/>
+      <c r="AY28" s="43"/>
+      <c r="AZ28" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="BA28" s="43"/>
-      <c r="BB28" s="43"/>
-      <c r="BC28" s="43"/>
-      <c r="BD28" s="43"/>
-      <c r="BE28" s="44"/>
-      <c r="BF28" s="42"/>
-      <c r="BG28" s="43"/>
-      <c r="BH28" s="43"/>
-      <c r="BI28" s="43"/>
-      <c r="BJ28" s="43"/>
-      <c r="BK28" s="44"/>
-      <c r="BL28" s="42" t="s">
+      <c r="BA28" s="42"/>
+      <c r="BB28" s="42"/>
+      <c r="BC28" s="42"/>
+      <c r="BD28" s="42"/>
+      <c r="BE28" s="43"/>
+      <c r="BF28" s="44"/>
+      <c r="BG28" s="42"/>
+      <c r="BH28" s="42"/>
+      <c r="BI28" s="42"/>
+      <c r="BJ28" s="42"/>
+      <c r="BK28" s="43"/>
+      <c r="BL28" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="BM28" s="43"/>
-      <c r="BN28" s="43"/>
-      <c r="BO28" s="43"/>
-      <c r="BP28" s="43"/>
-      <c r="BQ28" s="43"/>
-      <c r="BR28" s="43"/>
-      <c r="BS28" s="43"/>
-      <c r="BT28" s="44"/>
-      <c r="BU28" s="42" t="s">
+      <c r="BM28" s="42"/>
+      <c r="BN28" s="42"/>
+      <c r="BO28" s="42"/>
+      <c r="BP28" s="42"/>
+      <c r="BQ28" s="42"/>
+      <c r="BR28" s="42"/>
+      <c r="BS28" s="42"/>
+      <c r="BT28" s="43"/>
+      <c r="BU28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="BV28" s="43"/>
-      <c r="BW28" s="43"/>
-      <c r="BX28" s="43"/>
-      <c r="BY28" s="43"/>
-      <c r="BZ28" s="43"/>
-      <c r="CA28" s="43"/>
-      <c r="CB28" s="43"/>
-      <c r="CC28" s="44"/>
-      <c r="CD28" s="42" t="s">
+      <c r="BV28" s="42"/>
+      <c r="BW28" s="42"/>
+      <c r="BX28" s="42"/>
+      <c r="BY28" s="42"/>
+      <c r="BZ28" s="42"/>
+      <c r="CA28" s="42"/>
+      <c r="CB28" s="42"/>
+      <c r="CC28" s="43"/>
+      <c r="CD28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="CE28" s="43"/>
-      <c r="CF28" s="43"/>
-      <c r="CG28" s="43"/>
-      <c r="CH28" s="43"/>
-      <c r="CI28" s="43"/>
-      <c r="CJ28" s="43"/>
-      <c r="CK28" s="43"/>
-      <c r="CL28" s="44"/>
-      <c r="CM28" s="42" t="s">
+      <c r="CE28" s="42"/>
+      <c r="CF28" s="42"/>
+      <c r="CG28" s="42"/>
+      <c r="CH28" s="42"/>
+      <c r="CI28" s="42"/>
+      <c r="CJ28" s="42"/>
+      <c r="CK28" s="42"/>
+      <c r="CL28" s="43"/>
+      <c r="CM28" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="CN28" s="43"/>
-      <c r="CO28" s="43"/>
-      <c r="CP28" s="43"/>
-      <c r="CQ28" s="43"/>
-      <c r="CR28" s="43"/>
-      <c r="CS28" s="43"/>
-      <c r="CT28" s="43"/>
-      <c r="CU28" s="43"/>
+      <c r="CN28" s="42"/>
+      <c r="CO28" s="42"/>
+      <c r="CP28" s="42"/>
+      <c r="CQ28" s="42"/>
+      <c r="CR28" s="42"/>
+      <c r="CS28" s="42"/>
+      <c r="CT28" s="42"/>
+      <c r="CU28" s="42"/>
     </row>
     <row r="29" spans="1:99" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="71"/>
@@ -3401,68 +3399,68 @@
       <c r="AS29" s="72"/>
       <c r="AT29" s="72"/>
       <c r="AU29" s="73"/>
-      <c r="AV29" s="43"/>
-      <c r="AW29" s="43"/>
-      <c r="AX29" s="43"/>
-      <c r="AY29" s="44"/>
-      <c r="AZ29" s="42" t="s">
+      <c r="AV29" s="42"/>
+      <c r="AW29" s="42"/>
+      <c r="AX29" s="42"/>
+      <c r="AY29" s="43"/>
+      <c r="AZ29" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="BA29" s="43"/>
-      <c r="BB29" s="43"/>
-      <c r="BC29" s="43"/>
-      <c r="BD29" s="43"/>
-      <c r="BE29" s="44"/>
-      <c r="BF29" s="42"/>
-      <c r="BG29" s="43"/>
-      <c r="BH29" s="43"/>
-      <c r="BI29" s="43"/>
-      <c r="BJ29" s="43"/>
-      <c r="BK29" s="44"/>
-      <c r="BL29" s="42" t="s">
+      <c r="BA29" s="42"/>
+      <c r="BB29" s="42"/>
+      <c r="BC29" s="42"/>
+      <c r="BD29" s="42"/>
+      <c r="BE29" s="43"/>
+      <c r="BF29" s="44"/>
+      <c r="BG29" s="42"/>
+      <c r="BH29" s="42"/>
+      <c r="BI29" s="42"/>
+      <c r="BJ29" s="42"/>
+      <c r="BK29" s="43"/>
+      <c r="BL29" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="BM29" s="43"/>
-      <c r="BN29" s="43"/>
-      <c r="BO29" s="43"/>
-      <c r="BP29" s="43"/>
-      <c r="BQ29" s="43"/>
-      <c r="BR29" s="43"/>
-      <c r="BS29" s="43"/>
-      <c r="BT29" s="44"/>
-      <c r="BU29" s="42" t="s">
+      <c r="BM29" s="42"/>
+      <c r="BN29" s="42"/>
+      <c r="BO29" s="42"/>
+      <c r="BP29" s="42"/>
+      <c r="BQ29" s="42"/>
+      <c r="BR29" s="42"/>
+      <c r="BS29" s="42"/>
+      <c r="BT29" s="43"/>
+      <c r="BU29" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="BV29" s="43"/>
-      <c r="BW29" s="43"/>
-      <c r="BX29" s="43"/>
-      <c r="BY29" s="43"/>
-      <c r="BZ29" s="43"/>
-      <c r="CA29" s="43"/>
-      <c r="CB29" s="43"/>
-      <c r="CC29" s="44"/>
-      <c r="CD29" s="42" t="s">
+      <c r="BV29" s="42"/>
+      <c r="BW29" s="42"/>
+      <c r="BX29" s="42"/>
+      <c r="BY29" s="42"/>
+      <c r="BZ29" s="42"/>
+      <c r="CA29" s="42"/>
+      <c r="CB29" s="42"/>
+      <c r="CC29" s="43"/>
+      <c r="CD29" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="CE29" s="43"/>
-      <c r="CF29" s="43"/>
-      <c r="CG29" s="43"/>
-      <c r="CH29" s="43"/>
-      <c r="CI29" s="43"/>
-      <c r="CJ29" s="43"/>
-      <c r="CK29" s="43"/>
-      <c r="CL29" s="44"/>
-      <c r="CM29" s="42" t="s">
+      <c r="CE29" s="42"/>
+      <c r="CF29" s="42"/>
+      <c r="CG29" s="42"/>
+      <c r="CH29" s="42"/>
+      <c r="CI29" s="42"/>
+      <c r="CJ29" s="42"/>
+      <c r="CK29" s="42"/>
+      <c r="CL29" s="43"/>
+      <c r="CM29" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="CN29" s="43"/>
-      <c r="CO29" s="43"/>
-      <c r="CP29" s="43"/>
-      <c r="CQ29" s="43"/>
-      <c r="CR29" s="43"/>
-      <c r="CS29" s="43"/>
-      <c r="CT29" s="43"/>
-      <c r="CU29" s="43"/>
+      <c r="CN29" s="42"/>
+      <c r="CO29" s="42"/>
+      <c r="CP29" s="42"/>
+      <c r="CQ29" s="42"/>
+      <c r="CR29" s="42"/>
+      <c r="CS29" s="42"/>
+      <c r="CT29" s="42"/>
+      <c r="CU29" s="42"/>
     </row>
     <row r="30" spans="1:99" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="74"/>
@@ -3512,66 +3510,66 @@
       <c r="AS30" s="75"/>
       <c r="AT30" s="75"/>
       <c r="AU30" s="76"/>
-      <c r="AV30" s="43"/>
-      <c r="AW30" s="43"/>
-      <c r="AX30" s="43"/>
-      <c r="AY30" s="44"/>
-      <c r="AZ30" s="42" t="s">
+      <c r="AV30" s="42"/>
+      <c r="AW30" s="42"/>
+      <c r="AX30" s="42"/>
+      <c r="AY30" s="43"/>
+      <c r="AZ30" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="BA30" s="43"/>
-      <c r="BB30" s="43"/>
-      <c r="BC30" s="43"/>
-      <c r="BD30" s="43"/>
-      <c r="BE30" s="44"/>
-      <c r="BF30" s="42"/>
-      <c r="BG30" s="43"/>
-      <c r="BH30" s="43"/>
-      <c r="BI30" s="43"/>
-      <c r="BJ30" s="43"/>
-      <c r="BK30" s="44"/>
-      <c r="BL30" s="42" t="s">
+      <c r="BA30" s="42"/>
+      <c r="BB30" s="42"/>
+      <c r="BC30" s="42"/>
+      <c r="BD30" s="42"/>
+      <c r="BE30" s="43"/>
+      <c r="BF30" s="44"/>
+      <c r="BG30" s="42"/>
+      <c r="BH30" s="42"/>
+      <c r="BI30" s="42"/>
+      <c r="BJ30" s="42"/>
+      <c r="BK30" s="43"/>
+      <c r="BL30" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="BM30" s="43"/>
-      <c r="BN30" s="43"/>
-      <c r="BO30" s="43"/>
-      <c r="BP30" s="43"/>
-      <c r="BQ30" s="43"/>
-      <c r="BR30" s="43"/>
-      <c r="BS30" s="43"/>
-      <c r="BT30" s="44"/>
-      <c r="BU30" s="42" t="s">
+      <c r="BM30" s="42"/>
+      <c r="BN30" s="42"/>
+      <c r="BO30" s="42"/>
+      <c r="BP30" s="42"/>
+      <c r="BQ30" s="42"/>
+      <c r="BR30" s="42"/>
+      <c r="BS30" s="42"/>
+      <c r="BT30" s="43"/>
+      <c r="BU30" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="BV30" s="43"/>
-      <c r="BW30" s="43"/>
-      <c r="BX30" s="43"/>
-      <c r="BY30" s="43"/>
-      <c r="BZ30" s="43"/>
-      <c r="CA30" s="43"/>
-      <c r="CB30" s="43"/>
-      <c r="CC30" s="44"/>
-      <c r="CD30" s="42" t="s">
+      <c r="BV30" s="42"/>
+      <c r="BW30" s="42"/>
+      <c r="BX30" s="42"/>
+      <c r="BY30" s="42"/>
+      <c r="BZ30" s="42"/>
+      <c r="CA30" s="42"/>
+      <c r="CB30" s="42"/>
+      <c r="CC30" s="43"/>
+      <c r="CD30" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="CE30" s="43"/>
-      <c r="CF30" s="43"/>
-      <c r="CG30" s="43"/>
-      <c r="CH30" s="43"/>
-      <c r="CI30" s="43"/>
-      <c r="CJ30" s="43"/>
-      <c r="CK30" s="43"/>
-      <c r="CL30" s="44"/>
-      <c r="CM30" s="42"/>
-      <c r="CN30" s="43"/>
-      <c r="CO30" s="43"/>
-      <c r="CP30" s="43"/>
-      <c r="CQ30" s="43"/>
-      <c r="CR30" s="43"/>
-      <c r="CS30" s="43"/>
-      <c r="CT30" s="43"/>
-      <c r="CU30" s="43"/>
+      <c r="CE30" s="42"/>
+      <c r="CF30" s="42"/>
+      <c r="CG30" s="42"/>
+      <c r="CH30" s="42"/>
+      <c r="CI30" s="42"/>
+      <c r="CJ30" s="42"/>
+      <c r="CK30" s="42"/>
+      <c r="CL30" s="43"/>
+      <c r="CM30" s="44"/>
+      <c r="CN30" s="42"/>
+      <c r="CO30" s="42"/>
+      <c r="CP30" s="42"/>
+      <c r="CQ30" s="42"/>
+      <c r="CR30" s="42"/>
+      <c r="CS30" s="42"/>
+      <c r="CT30" s="42"/>
+      <c r="CU30" s="42"/>
     </row>
     <row r="31" spans="1:99" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37">
@@ -3751,6 +3749,8 @@
     <mergeCell ref="CH15:CU15"/>
     <mergeCell ref="CH16:CU16"/>
     <mergeCell ref="BF25:BK25"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="BE13:BG13"/>
     <mergeCell ref="AV29:AY29"/>
     <mergeCell ref="AZ29:BE29"/>
     <mergeCell ref="BF29:BK29"/>
@@ -3760,8 +3760,6 @@
     <mergeCell ref="CD27:CL27"/>
     <mergeCell ref="BF26:BK26"/>
     <mergeCell ref="BL29:BT29"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="BE13:BG13"/>
     <mergeCell ref="BK13:BM13"/>
     <mergeCell ref="AS15:BC15"/>
     <mergeCell ref="BD15:BE15"/>
@@ -3786,10 +3784,10 @@
   <sheetPr>
     <tabColor indexed="48"/>
   </sheetPr>
-  <dimension ref="A1:CU27"/>
+  <dimension ref="A1:CU76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="CX69" sqref="CX69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3811,107 +3809,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="45"/>
-      <c r="BE1" s="45"/>
-      <c r="BF1" s="45"/>
-      <c r="BG1" s="45"/>
-      <c r="BH1" s="45"/>
-      <c r="BI1" s="45"/>
-      <c r="BJ1" s="45"/>
-      <c r="BK1" s="45"/>
-      <c r="BL1" s="45"/>
-      <c r="BM1" s="45"/>
-      <c r="BN1" s="45"/>
-      <c r="BO1" s="45"/>
-      <c r="BP1" s="45"/>
-      <c r="BQ1" s="45"/>
-      <c r="BR1" s="45"/>
-      <c r="BS1" s="45"/>
-      <c r="BT1" s="45"/>
-      <c r="BU1" s="45"/>
-      <c r="BV1" s="45"/>
-      <c r="BW1" s="45"/>
-      <c r="BX1" s="45"/>
-      <c r="BY1" s="45"/>
-      <c r="BZ1" s="45"/>
-      <c r="CA1" s="45"/>
-      <c r="CB1" s="45"/>
-      <c r="CC1" s="45"/>
-      <c r="CD1" s="45"/>
-      <c r="CE1" s="45"/>
-      <c r="CF1" s="45"/>
-      <c r="CG1" s="45"/>
-      <c r="CH1" s="45"/>
-      <c r="CI1" s="45"/>
-      <c r="CJ1" s="45"/>
-      <c r="CK1" s="45"/>
-      <c r="CL1" s="45"/>
-      <c r="CM1" s="45"/>
-      <c r="CN1" s="45"/>
-      <c r="CO1" s="45"/>
-      <c r="CP1" s="45"/>
-      <c r="CQ1" s="45"/>
-      <c r="CR1" s="45"/>
-      <c r="CS1" s="45"/>
-      <c r="CT1" s="45"/>
-      <c r="CU1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="48"/>
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="48"/>
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
+      <c r="BG1" s="48"/>
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="48"/>
+      <c r="BJ1" s="48"/>
+      <c r="BK1" s="48"/>
+      <c r="BL1" s="48"/>
+      <c r="BM1" s="48"/>
+      <c r="BN1" s="48"/>
+      <c r="BO1" s="48"/>
+      <c r="BP1" s="48"/>
+      <c r="BQ1" s="48"/>
+      <c r="BR1" s="48"/>
+      <c r="BS1" s="48"/>
+      <c r="BT1" s="48"/>
+      <c r="BU1" s="48"/>
+      <c r="BV1" s="48"/>
+      <c r="BW1" s="48"/>
+      <c r="BX1" s="48"/>
+      <c r="BY1" s="48"/>
+      <c r="BZ1" s="48"/>
+      <c r="CA1" s="48"/>
+      <c r="CB1" s="48"/>
+      <c r="CC1" s="48"/>
+      <c r="CD1" s="48"/>
+      <c r="CE1" s="48"/>
+      <c r="CF1" s="48"/>
+      <c r="CG1" s="48"/>
+      <c r="CH1" s="48"/>
+      <c r="CI1" s="48"/>
+      <c r="CJ1" s="48"/>
+      <c r="CK1" s="48"/>
+      <c r="CL1" s="48"/>
+      <c r="CM1" s="48"/>
+      <c r="CN1" s="48"/>
+      <c r="CO1" s="48"/>
+      <c r="CP1" s="48"/>
+      <c r="CQ1" s="48"/>
+      <c r="CR1" s="48"/>
+      <c r="CS1" s="48"/>
+      <c r="CT1" s="48"/>
+      <c r="CU1" s="48"/>
     </row>
     <row r="3" spans="1:99" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
@@ -3989,40 +3987,40 @@
       <c r="BM3" s="69"/>
       <c r="BN3" s="69"/>
       <c r="BO3" s="70"/>
-      <c r="BP3" s="84" t="s">
+      <c r="BP3" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="BQ3" s="83"/>
-      <c r="BR3" s="83"/>
-      <c r="BS3" s="83"/>
-      <c r="BT3" s="83"/>
-      <c r="BU3" s="83"/>
-      <c r="BV3" s="83"/>
-      <c r="BW3" s="83"/>
-      <c r="BX3" s="83"/>
-      <c r="BY3" s="83"/>
-      <c r="BZ3" s="83"/>
-      <c r="CA3" s="83"/>
-      <c r="CB3" s="83"/>
-      <c r="CC3" s="83"/>
-      <c r="CD3" s="83"/>
-      <c r="CE3" s="83"/>
-      <c r="CF3" s="83"/>
-      <c r="CG3" s="83"/>
-      <c r="CH3" s="83"/>
-      <c r="CI3" s="83"/>
-      <c r="CJ3" s="83"/>
-      <c r="CK3" s="83"/>
-      <c r="CL3" s="83"/>
-      <c r="CM3" s="83"/>
-      <c r="CN3" s="83"/>
-      <c r="CO3" s="83"/>
-      <c r="CP3" s="83"/>
-      <c r="CQ3" s="83"/>
-      <c r="CR3" s="83"/>
-      <c r="CS3" s="83"/>
-      <c r="CT3" s="83"/>
-      <c r="CU3" s="83"/>
+      <c r="BQ3" s="84"/>
+      <c r="BR3" s="84"/>
+      <c r="BS3" s="84"/>
+      <c r="BT3" s="84"/>
+      <c r="BU3" s="84"/>
+      <c r="BV3" s="84"/>
+      <c r="BW3" s="84"/>
+      <c r="BX3" s="84"/>
+      <c r="BY3" s="84"/>
+      <c r="BZ3" s="84"/>
+      <c r="CA3" s="84"/>
+      <c r="CB3" s="84"/>
+      <c r="CC3" s="84"/>
+      <c r="CD3" s="84"/>
+      <c r="CE3" s="84"/>
+      <c r="CF3" s="84"/>
+      <c r="CG3" s="84"/>
+      <c r="CH3" s="84"/>
+      <c r="CI3" s="84"/>
+      <c r="CJ3" s="84"/>
+      <c r="CK3" s="84"/>
+      <c r="CL3" s="84"/>
+      <c r="CM3" s="84"/>
+      <c r="CN3" s="84"/>
+      <c r="CO3" s="84"/>
+      <c r="CP3" s="84"/>
+      <c r="CQ3" s="84"/>
+      <c r="CR3" s="84"/>
+      <c r="CS3" s="84"/>
+      <c r="CT3" s="84"/>
+      <c r="CU3" s="84"/>
     </row>
     <row r="4" spans="1:99" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="72" t="s">
@@ -4099,7 +4097,7 @@
       <c r="BN4" s="72"/>
       <c r="BO4" s="73"/>
       <c r="BP4" s="71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BQ4" s="72"/>
       <c r="BR4" s="72"/>
@@ -4109,7 +4107,7 @@
       <c r="BV4" s="72"/>
       <c r="BW4" s="73"/>
       <c r="BX4" s="71" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BY4" s="72"/>
       <c r="BZ4" s="72"/>
@@ -4119,7 +4117,7 @@
       <c r="CD4" s="72"/>
       <c r="CE4" s="73"/>
       <c r="CF4" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="CG4" s="72"/>
       <c r="CH4" s="72"/>
@@ -4585,795 +4583,928 @@
       <c r="CT8" s="37"/>
       <c r="CU8" s="37"/>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:99" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:99" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.2"/>
+    <row r="25" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="81:97" x14ac:dyDescent="0.2">
+      <c r="CE46" s="11"/>
+      <c r="CF46" s="11"/>
+      <c r="CG46" s="11"/>
+      <c r="CH46" s="11"/>
+      <c r="CI46" s="11"/>
+      <c r="CJ46" s="11"/>
+      <c r="CK46" s="11"/>
+      <c r="CL46" s="11"/>
+      <c r="CM46" s="11"/>
+      <c r="CN46" s="11"/>
+      <c r="CO46" s="11"/>
+      <c r="CP46" s="11"/>
+      <c r="CQ46" s="11"/>
+      <c r="CR46" s="11"/>
+      <c r="CS46" s="11"/>
+    </row>
+    <row r="47" spans="81:97" x14ac:dyDescent="0.2">
+      <c r="CC47" s="11"/>
+      <c r="CD47" s="11"/>
+    </row>
+    <row r="49" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="CE49" s="11"/>
+      <c r="CF49" s="11"/>
+      <c r="CG49" s="11"/>
+      <c r="CH49" s="11"/>
+      <c r="CI49" s="11"/>
+      <c r="CJ49" s="11"/>
+      <c r="CK49" s="11"/>
+      <c r="CL49" s="11"/>
+      <c r="CM49" s="11"/>
+      <c r="CN49" s="11"/>
+      <c r="CO49" s="11"/>
+      <c r="CP49" s="11"/>
+      <c r="CQ49" s="11"/>
+      <c r="CR49" s="11"/>
+      <c r="CS49" s="11"/>
+    </row>
+    <row r="50" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="CC50" s="11"/>
+      <c r="CD50" s="11"/>
+    </row>
+    <row r="55" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="CE55" s="12"/>
+      <c r="CF55" s="12"/>
+      <c r="CG55" s="12"/>
+      <c r="CH55" s="12"/>
+      <c r="CI55" s="12"/>
+      <c r="CJ55" s="12"/>
+      <c r="CK55" s="12"/>
+      <c r="CL55" s="12"/>
+      <c r="CM55" s="12"/>
+      <c r="CN55" s="12"/>
+      <c r="CO55" s="12"/>
+      <c r="CP55" s="12"/>
+      <c r="CQ55" s="12"/>
+      <c r="CR55" s="12"/>
+      <c r="CS55" s="12"/>
+    </row>
+    <row r="56" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="CC56" s="12"/>
+      <c r="CD56" s="12"/>
+    </row>
+    <row r="57" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="CE57" s="11"/>
+      <c r="CF57" s="11"/>
+      <c r="CG57" s="11"/>
+      <c r="CH57" s="11"/>
+      <c r="CI57" s="11"/>
+      <c r="CJ57" s="11"/>
+      <c r="CK57" s="11"/>
+      <c r="CL57" s="11"/>
+      <c r="CM57" s="11"/>
+      <c r="CN57" s="11"/>
+      <c r="CO57" s="11"/>
+      <c r="CP57" s="11"/>
+      <c r="CQ57" s="11"/>
+      <c r="CR57" s="11"/>
+      <c r="CS57" s="11"/>
+    </row>
+    <row r="58" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="CC58" s="11"/>
+      <c r="CD58" s="11"/>
+    </row>
+    <row r="61" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="62" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="56"/>
-      <c r="AJ13" s="56"/>
-      <c r="AK13" s="56"/>
-      <c r="AL13" s="56"/>
-      <c r="AM13" s="56"/>
-      <c r="AN13" s="56"/>
-      <c r="AO13" s="56"/>
-      <c r="AP13" s="56"/>
-      <c r="AQ13" s="56"/>
-      <c r="AR13" s="9"/>
-      <c r="AS13" s="56"/>
-      <c r="AT13" s="56"/>
-      <c r="AU13" s="56"/>
-      <c r="AV13" s="56"/>
-      <c r="AW13" s="56"/>
-      <c r="AX13" s="56"/>
-      <c r="AY13" s="56"/>
-      <c r="AZ13" s="56"/>
-      <c r="BA13" s="56"/>
-      <c r="BB13" s="56"/>
-      <c r="BC13" s="56"/>
-      <c r="BD13" s="56"/>
-      <c r="BE13" s="56"/>
-      <c r="BF13" s="56"/>
-      <c r="BG13" s="9"/>
-      <c r="BH13" s="56"/>
-      <c r="BI13" s="56"/>
-      <c r="BJ13" s="56"/>
-      <c r="BK13" s="56"/>
-      <c r="BL13" s="56"/>
-      <c r="BM13" s="56"/>
-      <c r="BN13" s="56"/>
-      <c r="BO13" s="56"/>
-      <c r="BP13" s="56"/>
-      <c r="BQ13" s="56"/>
-      <c r="BR13" s="56"/>
-      <c r="BS13" s="56"/>
-      <c r="BT13" s="56"/>
-      <c r="BU13" s="56"/>
-      <c r="BV13" s="56"/>
-      <c r="BW13" s="56"/>
-      <c r="BX13" s="56"/>
-      <c r="BY13" s="56"/>
-      <c r="BZ13" s="56"/>
-      <c r="CA13" s="56"/>
-      <c r="CB13" s="56"/>
-    </row>
-    <row r="14" spans="1:99" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="W14" s="58" t="s">
+      <c r="W62" s="56"/>
+      <c r="X62" s="56"/>
+      <c r="Y62" s="56"/>
+      <c r="Z62" s="56"/>
+      <c r="AA62" s="56"/>
+      <c r="AB62" s="56"/>
+      <c r="AC62" s="56"/>
+      <c r="AD62" s="56"/>
+      <c r="AE62" s="56"/>
+      <c r="AF62" s="56"/>
+      <c r="AG62" s="56"/>
+      <c r="AH62" s="56"/>
+      <c r="AI62" s="56"/>
+      <c r="AJ62" s="56"/>
+      <c r="AK62" s="56"/>
+      <c r="AL62" s="56"/>
+      <c r="AM62" s="56"/>
+      <c r="AN62" s="56"/>
+      <c r="AO62" s="56"/>
+      <c r="AP62" s="56"/>
+      <c r="AQ62" s="56"/>
+      <c r="AR62" s="9"/>
+      <c r="AS62" s="56"/>
+      <c r="AT62" s="56"/>
+      <c r="AU62" s="56"/>
+      <c r="AV62" s="56"/>
+      <c r="AW62" s="56"/>
+      <c r="AX62" s="56"/>
+      <c r="AY62" s="56"/>
+      <c r="AZ62" s="56"/>
+      <c r="BA62" s="56"/>
+      <c r="BB62" s="56"/>
+      <c r="BC62" s="56"/>
+      <c r="BD62" s="56"/>
+      <c r="BE62" s="56"/>
+      <c r="BF62" s="56"/>
+      <c r="BG62" s="9"/>
+      <c r="BH62" s="56"/>
+      <c r="BI62" s="56"/>
+      <c r="BJ62" s="56"/>
+      <c r="BK62" s="56"/>
+      <c r="BL62" s="56"/>
+      <c r="BM62" s="56"/>
+      <c r="BN62" s="56"/>
+      <c r="BO62" s="56"/>
+      <c r="BP62" s="56"/>
+      <c r="BQ62" s="56"/>
+      <c r="BR62" s="56"/>
+      <c r="BS62" s="56"/>
+      <c r="BT62" s="56"/>
+      <c r="BU62" s="56"/>
+      <c r="BV62" s="56"/>
+      <c r="BW62" s="56"/>
+      <c r="BX62" s="56"/>
+      <c r="BY62" s="56"/>
+      <c r="BZ62" s="56"/>
+      <c r="CA62" s="56"/>
+      <c r="CB62" s="56"/>
+    </row>
+    <row r="63" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="58"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="58"/>
-      <c r="AM14" s="58"/>
-      <c r="AN14" s="58"/>
-      <c r="AO14" s="58"/>
-      <c r="AP14" s="58"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="58" t="s">
+      <c r="X63" s="58"/>
+      <c r="Y63" s="58"/>
+      <c r="Z63" s="58"/>
+      <c r="AA63" s="58"/>
+      <c r="AB63" s="58"/>
+      <c r="AC63" s="58"/>
+      <c r="AD63" s="58"/>
+      <c r="AE63" s="58"/>
+      <c r="AF63" s="58"/>
+      <c r="AG63" s="58"/>
+      <c r="AH63" s="58"/>
+      <c r="AI63" s="58"/>
+      <c r="AJ63" s="58"/>
+      <c r="AK63" s="58"/>
+      <c r="AL63" s="58"/>
+      <c r="AM63" s="58"/>
+      <c r="AN63" s="58"/>
+      <c r="AO63" s="58"/>
+      <c r="AP63" s="58"/>
+      <c r="AQ63" s="58"/>
+      <c r="AR63" s="10"/>
+      <c r="AS63" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="AT14" s="58"/>
-      <c r="AU14" s="58"/>
-      <c r="AV14" s="58"/>
-      <c r="AW14" s="58"/>
-      <c r="AX14" s="58"/>
-      <c r="AY14" s="58"/>
-      <c r="AZ14" s="58"/>
-      <c r="BA14" s="58"/>
-      <c r="BB14" s="58"/>
-      <c r="BC14" s="58"/>
-      <c r="BD14" s="58"/>
-      <c r="BE14" s="58"/>
-      <c r="BF14" s="58"/>
-      <c r="BG14" s="10"/>
-      <c r="BH14" s="58" t="s">
+      <c r="AT63" s="58"/>
+      <c r="AU63" s="58"/>
+      <c r="AV63" s="58"/>
+      <c r="AW63" s="58"/>
+      <c r="AX63" s="58"/>
+      <c r="AY63" s="58"/>
+      <c r="AZ63" s="58"/>
+      <c r="BA63" s="58"/>
+      <c r="BB63" s="58"/>
+      <c r="BC63" s="58"/>
+      <c r="BD63" s="58"/>
+      <c r="BE63" s="58"/>
+      <c r="BF63" s="58"/>
+      <c r="BG63" s="10"/>
+      <c r="BH63" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="BI14" s="58"/>
-      <c r="BJ14" s="58"/>
-      <c r="BK14" s="58"/>
-      <c r="BL14" s="58"/>
-      <c r="BM14" s="58"/>
-      <c r="BN14" s="58"/>
-      <c r="BO14" s="58"/>
-      <c r="BP14" s="58"/>
-      <c r="BQ14" s="58"/>
-      <c r="BR14" s="58"/>
-      <c r="BS14" s="58"/>
-      <c r="BT14" s="58"/>
-      <c r="BU14" s="58"/>
-      <c r="BV14" s="58"/>
-      <c r="BW14" s="58"/>
-      <c r="BX14" s="58"/>
-      <c r="BY14" s="58"/>
-      <c r="BZ14" s="58"/>
-      <c r="CA14" s="58"/>
-      <c r="CB14" s="58"/>
-    </row>
-    <row r="15" spans="1:99" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="BI63" s="58"/>
+      <c r="BJ63" s="58"/>
+      <c r="BK63" s="58"/>
+      <c r="BL63" s="58"/>
+      <c r="BM63" s="58"/>
+      <c r="BN63" s="58"/>
+      <c r="BO63" s="58"/>
+      <c r="BP63" s="58"/>
+      <c r="BQ63" s="58"/>
+      <c r="BR63" s="58"/>
+      <c r="BS63" s="58"/>
+      <c r="BT63" s="58"/>
+      <c r="BU63" s="58"/>
+      <c r="BV63" s="58"/>
+      <c r="BW63" s="58"/>
+      <c r="BX63" s="58"/>
+      <c r="BY63" s="58"/>
+      <c r="BZ63" s="58"/>
+      <c r="CA63" s="58"/>
+      <c r="CB63" s="58"/>
+    </row>
+    <row r="65" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="56"/>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="56"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="56"/>
-      <c r="AP16" s="56"/>
-      <c r="AQ16" s="56"/>
-      <c r="AR16" s="56"/>
-      <c r="AS16" s="56"/>
-      <c r="AT16" s="56"/>
-      <c r="AU16" s="56"/>
-      <c r="AV16" s="56"/>
-      <c r="AW16" s="56"/>
-      <c r="AX16" s="56"/>
-      <c r="AY16" s="56"/>
-      <c r="AZ16" s="56"/>
-      <c r="BB16" s="56"/>
-      <c r="BC16" s="56"/>
-      <c r="BD16" s="56"/>
-      <c r="BE16" s="56"/>
-      <c r="BF16" s="56"/>
-      <c r="BG16" s="56"/>
-      <c r="BH16" s="56"/>
-      <c r="BI16" s="56"/>
-      <c r="BJ16" s="56"/>
-      <c r="BK16" s="56"/>
-      <c r="BL16" s="56"/>
-      <c r="BM16" s="56"/>
-      <c r="BN16" s="56"/>
-      <c r="BO16" s="56"/>
-      <c r="BP16" s="56"/>
-      <c r="BQ16" s="56"/>
-      <c r="BR16" s="56"/>
-      <c r="BS16" s="56"/>
-      <c r="BT16" s="56"/>
-      <c r="BU16" s="56"/>
-      <c r="BV16" s="56"/>
-    </row>
-    <row r="17" spans="1:74" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="J17" s="58" t="s">
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="56"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="56"/>
+      <c r="P65" s="56"/>
+      <c r="Q65" s="56"/>
+      <c r="R65" s="56"/>
+      <c r="S65" s="56"/>
+      <c r="T65" s="56"/>
+      <c r="U65" s="56"/>
+      <c r="V65" s="56"/>
+      <c r="W65" s="56"/>
+      <c r="X65" s="56"/>
+      <c r="Y65" s="56"/>
+      <c r="Z65" s="56"/>
+      <c r="AA65" s="56"/>
+      <c r="AB65" s="56"/>
+      <c r="AC65" s="56"/>
+      <c r="AD65" s="56"/>
+      <c r="AF65" s="56"/>
+      <c r="AG65" s="56"/>
+      <c r="AH65" s="56"/>
+      <c r="AI65" s="56"/>
+      <c r="AJ65" s="56"/>
+      <c r="AK65" s="56"/>
+      <c r="AL65" s="56"/>
+      <c r="AM65" s="56"/>
+      <c r="AN65" s="56"/>
+      <c r="AO65" s="56"/>
+      <c r="AP65" s="56"/>
+      <c r="AQ65" s="56"/>
+      <c r="AR65" s="56"/>
+      <c r="AS65" s="56"/>
+      <c r="AT65" s="56"/>
+      <c r="AU65" s="56"/>
+      <c r="AV65" s="56"/>
+      <c r="AW65" s="56"/>
+      <c r="AX65" s="56"/>
+      <c r="AY65" s="56"/>
+      <c r="AZ65" s="56"/>
+      <c r="BB65" s="56"/>
+      <c r="BC65" s="56"/>
+      <c r="BD65" s="56"/>
+      <c r="BE65" s="56"/>
+      <c r="BF65" s="56"/>
+      <c r="BG65" s="56"/>
+      <c r="BH65" s="56"/>
+      <c r="BI65" s="56"/>
+      <c r="BJ65" s="56"/>
+      <c r="BK65" s="56"/>
+      <c r="BL65" s="56"/>
+      <c r="BM65" s="56"/>
+      <c r="BN65" s="56"/>
+      <c r="BO65" s="56"/>
+      <c r="BP65" s="56"/>
+      <c r="BQ65" s="56"/>
+      <c r="BR65" s="56"/>
+      <c r="BS65" s="56"/>
+      <c r="BT65" s="56"/>
+      <c r="BU65" s="56"/>
+      <c r="BV65" s="56"/>
+    </row>
+    <row r="66" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AF17" s="58" t="s">
+      <c r="K66" s="58"/>
+      <c r="L66" s="58"/>
+      <c r="M66" s="58"/>
+      <c r="N66" s="58"/>
+      <c r="O66" s="58"/>
+      <c r="P66" s="58"/>
+      <c r="Q66" s="58"/>
+      <c r="R66" s="58"/>
+      <c r="S66" s="58"/>
+      <c r="T66" s="58"/>
+      <c r="U66" s="58"/>
+      <c r="V66" s="58"/>
+      <c r="W66" s="58"/>
+      <c r="X66" s="58"/>
+      <c r="Y66" s="58"/>
+      <c r="Z66" s="58"/>
+      <c r="AA66" s="58"/>
+      <c r="AB66" s="58"/>
+      <c r="AC66" s="58"/>
+      <c r="AD66" s="58"/>
+      <c r="AE66" s="11"/>
+      <c r="AF66" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="58"/>
-      <c r="AM17" s="58"/>
-      <c r="AN17" s="58"/>
-      <c r="AO17" s="58"/>
-      <c r="AP17" s="58"/>
-      <c r="AQ17" s="58"/>
-      <c r="AR17" s="58"/>
-      <c r="AS17" s="58"/>
-      <c r="AT17" s="58"/>
-      <c r="AU17" s="58"/>
-      <c r="AV17" s="58"/>
-      <c r="AW17" s="58"/>
-      <c r="AX17" s="58"/>
-      <c r="AY17" s="58"/>
-      <c r="AZ17" s="58"/>
-      <c r="BB17" s="58" t="s">
+      <c r="AG66" s="58"/>
+      <c r="AH66" s="58"/>
+      <c r="AI66" s="58"/>
+      <c r="AJ66" s="58"/>
+      <c r="AK66" s="58"/>
+      <c r="AL66" s="58"/>
+      <c r="AM66" s="58"/>
+      <c r="AN66" s="58"/>
+      <c r="AO66" s="58"/>
+      <c r="AP66" s="58"/>
+      <c r="AQ66" s="58"/>
+      <c r="AR66" s="58"/>
+      <c r="AS66" s="58"/>
+      <c r="AT66" s="58"/>
+      <c r="AU66" s="58"/>
+      <c r="AV66" s="58"/>
+      <c r="AW66" s="58"/>
+      <c r="AX66" s="58"/>
+      <c r="AY66" s="58"/>
+      <c r="AZ66" s="58"/>
+      <c r="BA66" s="11"/>
+      <c r="BB66" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="BC17" s="58"/>
-      <c r="BD17" s="58"/>
-      <c r="BE17" s="58"/>
-      <c r="BF17" s="58"/>
-      <c r="BG17" s="58"/>
-      <c r="BH17" s="58"/>
-      <c r="BI17" s="58"/>
-      <c r="BJ17" s="58"/>
-      <c r="BK17" s="58"/>
-      <c r="BL17" s="58"/>
-      <c r="BM17" s="58"/>
-      <c r="BN17" s="58"/>
-      <c r="BO17" s="58"/>
-      <c r="BP17" s="58"/>
-      <c r="BQ17" s="58"/>
-      <c r="BR17" s="58"/>
-      <c r="BS17" s="58"/>
-      <c r="BT17" s="58"/>
-      <c r="BU17" s="58"/>
-      <c r="BV17" s="58"/>
-    </row>
-    <row r="18" spans="1:74" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
+      <c r="BC66" s="58"/>
+      <c r="BD66" s="58"/>
+      <c r="BE66" s="58"/>
+      <c r="BF66" s="58"/>
+      <c r="BG66" s="58"/>
+      <c r="BH66" s="58"/>
+      <c r="BI66" s="58"/>
+      <c r="BJ66" s="58"/>
+      <c r="BK66" s="58"/>
+      <c r="BL66" s="58"/>
+      <c r="BM66" s="58"/>
+      <c r="BN66" s="58"/>
+      <c r="BO66" s="58"/>
+      <c r="BP66" s="58"/>
+      <c r="BQ66" s="58"/>
+      <c r="BR66" s="58"/>
+      <c r="BS66" s="58"/>
+      <c r="BT66" s="58"/>
+      <c r="BU66" s="58"/>
+      <c r="BV66" s="58"/>
+      <c r="BW66" s="11"/>
+      <c r="BX66" s="11"/>
+      <c r="BY66" s="11"/>
+      <c r="BZ66" s="11"/>
+      <c r="CA66" s="11"/>
+      <c r="CB66" s="11"/>
+    </row>
+    <row r="68" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="2" t="s">
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="40">
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="40">
         <v>20</v>
       </c>
-      <c r="T19" s="40"/>
-      <c r="U19" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="2" t="s">
+      <c r="T68" s="40"/>
+      <c r="U68" s="41"/>
+      <c r="V68" s="41"/>
+      <c r="W68" s="41"/>
+      <c r="X68" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:74" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14" t="s">
+    <row r="69" spans="1:80" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A70" s="13"/>
+      <c r="B70" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="14"/>
-      <c r="AM21" s="14"/>
-      <c r="AN21" s="14"/>
-      <c r="AO21" s="14"/>
-      <c r="AP21" s="14"/>
-      <c r="AQ21" s="14"/>
-      <c r="AR21" s="14"/>
-      <c r="AS21" s="14"/>
-      <c r="AT21" s="14"/>
-      <c r="AU21" s="14"/>
-      <c r="AV21" s="14"/>
-      <c r="AW21" s="14"/>
-      <c r="AX21" s="14"/>
-      <c r="AY21" s="14"/>
-      <c r="AZ21" s="14"/>
-      <c r="BA21" s="14"/>
-      <c r="BB21" s="14"/>
-      <c r="BC21" s="14"/>
-      <c r="BD21" s="14"/>
-      <c r="BE21" s="14"/>
-      <c r="BF21" s="14"/>
-      <c r="BG21" s="14"/>
-      <c r="BH21" s="15"/>
-    </row>
-    <row r="22" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="56"/>
-      <c r="AL22" s="56"/>
-      <c r="AM22" s="56"/>
-      <c r="AN22" s="56"/>
-      <c r="AO22" s="56"/>
-      <c r="AP22" s="56"/>
-      <c r="AQ22" s="56"/>
-      <c r="AR22" s="56"/>
-      <c r="AS22" s="56"/>
-      <c r="AT22" s="56"/>
-      <c r="AU22" s="56"/>
-      <c r="AV22" s="56"/>
-      <c r="AW22" s="56"/>
-      <c r="AX22" s="56"/>
-      <c r="AY22" s="56"/>
-      <c r="AZ22" s="56"/>
-      <c r="BA22" s="56"/>
-      <c r="BB22" s="56"/>
-      <c r="BC22" s="56"/>
-      <c r="BD22" s="56"/>
-      <c r="BE22" s="56"/>
-      <c r="BF22" s="56"/>
-      <c r="BG22" s="56"/>
-      <c r="BH22" s="17"/>
-    </row>
-    <row r="23" spans="1:74" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="58" t="s">
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="14"/>
+      <c r="X70" s="14"/>
+      <c r="Y70" s="14"/>
+      <c r="Z70" s="14"/>
+      <c r="AA70" s="14"/>
+      <c r="AB70" s="14"/>
+      <c r="AC70" s="14"/>
+      <c r="AD70" s="14"/>
+      <c r="AE70" s="14"/>
+      <c r="AF70" s="14"/>
+      <c r="AG70" s="14"/>
+      <c r="AH70" s="14"/>
+      <c r="AI70" s="14"/>
+      <c r="AJ70" s="14"/>
+      <c r="AK70" s="14"/>
+      <c r="AL70" s="14"/>
+      <c r="AM70" s="14"/>
+      <c r="AN70" s="14"/>
+      <c r="AO70" s="14"/>
+      <c r="AP70" s="14"/>
+      <c r="AQ70" s="14"/>
+      <c r="AR70" s="14"/>
+      <c r="AS70" s="14"/>
+      <c r="AT70" s="14"/>
+      <c r="AU70" s="14"/>
+      <c r="AV70" s="14"/>
+      <c r="AW70" s="14"/>
+      <c r="AX70" s="14"/>
+      <c r="AY70" s="14"/>
+      <c r="AZ70" s="14"/>
+      <c r="BA70" s="14"/>
+      <c r="BB70" s="14"/>
+      <c r="BC70" s="14"/>
+      <c r="BD70" s="14"/>
+      <c r="BE70" s="14"/>
+      <c r="BF70" s="14"/>
+      <c r="BG70" s="14"/>
+      <c r="BH70" s="15"/>
+    </row>
+    <row r="71" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A71" s="16"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="56"/>
+      <c r="P71" s="56"/>
+      <c r="Q71" s="56"/>
+      <c r="R71" s="56"/>
+      <c r="S71" s="56"/>
+      <c r="T71" s="56"/>
+      <c r="U71" s="56"/>
+      <c r="V71" s="56"/>
+      <c r="W71" s="56"/>
+      <c r="X71" s="56"/>
+      <c r="Y71" s="56"/>
+      <c r="Z71" s="56"/>
+      <c r="AA71" s="56"/>
+      <c r="AB71" s="56"/>
+      <c r="AC71" s="56"/>
+      <c r="AD71" s="56"/>
+      <c r="AE71" s="56"/>
+      <c r="AF71" s="56"/>
+      <c r="AG71" s="56"/>
+      <c r="AH71" s="56"/>
+      <c r="AI71" s="56"/>
+      <c r="AJ71" s="56"/>
+      <c r="AK71" s="56"/>
+      <c r="AL71" s="56"/>
+      <c r="AM71" s="56"/>
+      <c r="AN71" s="56"/>
+      <c r="AO71" s="56"/>
+      <c r="AP71" s="56"/>
+      <c r="AQ71" s="56"/>
+      <c r="AR71" s="56"/>
+      <c r="AS71" s="56"/>
+      <c r="AT71" s="56"/>
+      <c r="AU71" s="56"/>
+      <c r="AV71" s="56"/>
+      <c r="AW71" s="56"/>
+      <c r="AX71" s="56"/>
+      <c r="AY71" s="56"/>
+      <c r="AZ71" s="56"/>
+      <c r="BA71" s="56"/>
+      <c r="BB71" s="56"/>
+      <c r="BC71" s="56"/>
+      <c r="BD71" s="56"/>
+      <c r="BE71" s="56"/>
+      <c r="BF71" s="56"/>
+      <c r="BG71" s="56"/>
+      <c r="BH71" s="17"/>
+    </row>
+    <row r="72" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A72" s="18"/>
+      <c r="B72" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="58"/>
-      <c r="AI23" s="58"/>
-      <c r="AJ23" s="58"/>
-      <c r="AK23" s="58"/>
-      <c r="AL23" s="58"/>
-      <c r="AM23" s="58"/>
-      <c r="AN23" s="58"/>
-      <c r="AO23" s="58"/>
-      <c r="AP23" s="58"/>
-      <c r="AQ23" s="58"/>
-      <c r="AR23" s="58"/>
-      <c r="AS23" s="58"/>
-      <c r="AT23" s="58"/>
-      <c r="AU23" s="58"/>
-      <c r="AV23" s="58"/>
-      <c r="AW23" s="58"/>
-      <c r="AX23" s="58"/>
-      <c r="AY23" s="58"/>
-      <c r="AZ23" s="58"/>
-      <c r="BA23" s="58"/>
-      <c r="BB23" s="58"/>
-      <c r="BC23" s="58"/>
-      <c r="BD23" s="58"/>
-      <c r="BE23" s="58"/>
-      <c r="BF23" s="58"/>
-      <c r="BG23" s="58"/>
-      <c r="BH23" s="19"/>
-    </row>
-    <row r="24" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="S24" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="56"/>
-      <c r="AF24" s="56"/>
-      <c r="AG24" s="56"/>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="56"/>
-      <c r="AJ24" s="56"/>
-      <c r="AK24" s="56"/>
-      <c r="AL24" s="56"/>
-      <c r="AM24" s="56"/>
-      <c r="AN24" s="56"/>
-      <c r="AO24" s="56"/>
-      <c r="AP24" s="56"/>
-      <c r="AQ24" s="56"/>
-      <c r="AR24" s="56"/>
-      <c r="AS24" s="56"/>
-      <c r="AT24" s="56"/>
-      <c r="AU24" s="56"/>
-      <c r="AV24" s="56"/>
-      <c r="AW24" s="56"/>
-      <c r="AX24" s="56"/>
-      <c r="AY24" s="56"/>
-      <c r="AZ24" s="56"/>
-      <c r="BA24" s="56"/>
-      <c r="BB24" s="56"/>
-      <c r="BC24" s="56"/>
-      <c r="BD24" s="56"/>
-      <c r="BE24" s="56"/>
-      <c r="BF24" s="56"/>
-      <c r="BG24" s="56"/>
-      <c r="BH24" s="17"/>
-    </row>
-    <row r="25" spans="1:74" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="58" t="s">
+      <c r="C72" s="58"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="58"/>
+      <c r="L72" s="58"/>
+      <c r="M72" s="58"/>
+      <c r="N72" s="58"/>
+      <c r="O72" s="58"/>
+      <c r="P72" s="58"/>
+      <c r="Q72" s="58"/>
+      <c r="R72" s="58"/>
+      <c r="S72" s="58"/>
+      <c r="T72" s="58"/>
+      <c r="U72" s="58"/>
+      <c r="V72" s="58"/>
+      <c r="W72" s="58"/>
+      <c r="X72" s="58"/>
+      <c r="Y72" s="58"/>
+      <c r="Z72" s="58"/>
+      <c r="AA72" s="58"/>
+      <c r="AB72" s="58"/>
+      <c r="AC72" s="58"/>
+      <c r="AD72" s="58"/>
+      <c r="AE72" s="58"/>
+      <c r="AF72" s="58"/>
+      <c r="AG72" s="58"/>
+      <c r="AH72" s="58"/>
+      <c r="AI72" s="58"/>
+      <c r="AJ72" s="58"/>
+      <c r="AK72" s="58"/>
+      <c r="AL72" s="58"/>
+      <c r="AM72" s="58"/>
+      <c r="AN72" s="58"/>
+      <c r="AO72" s="58"/>
+      <c r="AP72" s="58"/>
+      <c r="AQ72" s="58"/>
+      <c r="AR72" s="58"/>
+      <c r="AS72" s="58"/>
+      <c r="AT72" s="58"/>
+      <c r="AU72" s="58"/>
+      <c r="AV72" s="58"/>
+      <c r="AW72" s="58"/>
+      <c r="AX72" s="58"/>
+      <c r="AY72" s="58"/>
+      <c r="AZ72" s="58"/>
+      <c r="BA72" s="58"/>
+      <c r="BB72" s="58"/>
+      <c r="BC72" s="58"/>
+      <c r="BD72" s="58"/>
+      <c r="BE72" s="58"/>
+      <c r="BF72" s="58"/>
+      <c r="BG72" s="58"/>
+      <c r="BH72" s="19"/>
+      <c r="BI72" s="12"/>
+      <c r="BJ72" s="12"/>
+      <c r="BK72" s="12"/>
+      <c r="BL72" s="12"/>
+      <c r="BM72" s="12"/>
+      <c r="BN72" s="12"/>
+      <c r="BO72" s="12"/>
+      <c r="BP72" s="12"/>
+      <c r="BQ72" s="12"/>
+      <c r="BR72" s="12"/>
+      <c r="BS72" s="12"/>
+      <c r="BT72" s="12"/>
+      <c r="BU72" s="12"/>
+      <c r="BV72" s="12"/>
+      <c r="BW72" s="12"/>
+      <c r="BX72" s="12"/>
+      <c r="BY72" s="12"/>
+      <c r="BZ72" s="12"/>
+      <c r="CA72" s="12"/>
+      <c r="CB72" s="12"/>
+    </row>
+    <row r="73" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A73" s="16"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="56"/>
+      <c r="M73" s="56"/>
+      <c r="N73" s="56"/>
+      <c r="O73" s="56"/>
+      <c r="S73" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="T73" s="56"/>
+      <c r="U73" s="56"/>
+      <c r="V73" s="56"/>
+      <c r="W73" s="56"/>
+      <c r="X73" s="56"/>
+      <c r="Y73" s="56"/>
+      <c r="Z73" s="56"/>
+      <c r="AA73" s="56"/>
+      <c r="AB73" s="56"/>
+      <c r="AC73" s="56"/>
+      <c r="AD73" s="56"/>
+      <c r="AE73" s="56"/>
+      <c r="AF73" s="56"/>
+      <c r="AG73" s="56"/>
+      <c r="AH73" s="56"/>
+      <c r="AI73" s="56"/>
+      <c r="AJ73" s="56"/>
+      <c r="AK73" s="56"/>
+      <c r="AL73" s="56"/>
+      <c r="AM73" s="56"/>
+      <c r="AN73" s="56"/>
+      <c r="AO73" s="56"/>
+      <c r="AP73" s="56"/>
+      <c r="AQ73" s="56"/>
+      <c r="AR73" s="56"/>
+      <c r="AS73" s="56"/>
+      <c r="AT73" s="56"/>
+      <c r="AU73" s="56"/>
+      <c r="AV73" s="56"/>
+      <c r="AW73" s="56"/>
+      <c r="AX73" s="56"/>
+      <c r="AY73" s="56"/>
+      <c r="AZ73" s="56"/>
+      <c r="BA73" s="56"/>
+      <c r="BB73" s="56"/>
+      <c r="BC73" s="56"/>
+      <c r="BD73" s="56"/>
+      <c r="BE73" s="56"/>
+      <c r="BF73" s="56"/>
+      <c r="BG73" s="56"/>
+      <c r="BH73" s="17"/>
+    </row>
+    <row r="74" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A74" s="20"/>
+      <c r="B74" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="S25" s="58" t="s">
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="58"/>
+      <c r="J74" s="58"/>
+      <c r="K74" s="58"/>
+      <c r="L74" s="58"/>
+      <c r="M74" s="58"/>
+      <c r="N74" s="58"/>
+      <c r="O74" s="58"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="58"/>
-      <c r="AF25" s="58"/>
-      <c r="AG25" s="58"/>
-      <c r="AH25" s="58"/>
-      <c r="AI25" s="58"/>
-      <c r="AJ25" s="58"/>
-      <c r="AK25" s="58"/>
-      <c r="AL25" s="58"/>
-      <c r="AM25" s="58"/>
-      <c r="AN25" s="58"/>
-      <c r="AO25" s="58"/>
-      <c r="AP25" s="58"/>
-      <c r="AQ25" s="58"/>
-      <c r="AR25" s="58"/>
-      <c r="AS25" s="58"/>
-      <c r="AT25" s="58"/>
-      <c r="AU25" s="58"/>
-      <c r="AV25" s="58"/>
-      <c r="AW25" s="58"/>
-      <c r="AX25" s="58"/>
-      <c r="AY25" s="58"/>
-      <c r="AZ25" s="58"/>
-      <c r="BA25" s="58"/>
-      <c r="BB25" s="58"/>
-      <c r="BC25" s="58"/>
-      <c r="BD25" s="58"/>
-      <c r="BE25" s="58"/>
-      <c r="BF25" s="58"/>
-      <c r="BG25" s="58"/>
-      <c r="BH25" s="21"/>
-    </row>
-    <row r="26" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="3" t="s">
+      <c r="T74" s="58"/>
+      <c r="U74" s="58"/>
+      <c r="V74" s="58"/>
+      <c r="W74" s="58"/>
+      <c r="X74" s="58"/>
+      <c r="Y74" s="58"/>
+      <c r="Z74" s="58"/>
+      <c r="AA74" s="58"/>
+      <c r="AB74" s="58"/>
+      <c r="AC74" s="58"/>
+      <c r="AD74" s="58"/>
+      <c r="AE74" s="58"/>
+      <c r="AF74" s="58"/>
+      <c r="AG74" s="58"/>
+      <c r="AH74" s="58"/>
+      <c r="AI74" s="58"/>
+      <c r="AJ74" s="58"/>
+      <c r="AK74" s="58"/>
+      <c r="AL74" s="58"/>
+      <c r="AM74" s="58"/>
+      <c r="AN74" s="58"/>
+      <c r="AO74" s="58"/>
+      <c r="AP74" s="58"/>
+      <c r="AQ74" s="58"/>
+      <c r="AR74" s="58"/>
+      <c r="AS74" s="58"/>
+      <c r="AT74" s="58"/>
+      <c r="AU74" s="58"/>
+      <c r="AV74" s="58"/>
+      <c r="AW74" s="58"/>
+      <c r="AX74" s="58"/>
+      <c r="AY74" s="58"/>
+      <c r="AZ74" s="58"/>
+      <c r="BA74" s="58"/>
+      <c r="BB74" s="58"/>
+      <c r="BC74" s="58"/>
+      <c r="BD74" s="58"/>
+      <c r="BE74" s="58"/>
+      <c r="BF74" s="58"/>
+      <c r="BG74" s="58"/>
+      <c r="BH74" s="21"/>
+      <c r="BI74" s="11"/>
+      <c r="BJ74" s="11"/>
+      <c r="BK74" s="11"/>
+      <c r="BL74" s="11"/>
+      <c r="BM74" s="11"/>
+      <c r="BN74" s="11"/>
+      <c r="BO74" s="11"/>
+      <c r="BP74" s="11"/>
+      <c r="BQ74" s="11"/>
+      <c r="BR74" s="11"/>
+      <c r="BS74" s="11"/>
+      <c r="BT74" s="11"/>
+      <c r="BU74" s="11"/>
+      <c r="BV74" s="11"/>
+      <c r="BW74" s="11"/>
+      <c r="BX74" s="11"/>
+      <c r="BY74" s="11"/>
+      <c r="BZ74" s="11"/>
+      <c r="CA74" s="11"/>
+      <c r="CB74" s="11"/>
+    </row>
+    <row r="75" spans="1:80" x14ac:dyDescent="0.2">
+      <c r="A75" s="16"/>
+      <c r="B75" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="2" t="s">
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="40">
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="40">
         <v>20</v>
       </c>
-      <c r="T26" s="40"/>
-      <c r="U26" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="2" t="s">
+      <c r="T75" s="40"/>
+      <c r="U75" s="41"/>
+      <c r="V75" s="41"/>
+      <c r="W75" s="41"/>
+      <c r="X75" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="BH26" s="17"/>
-    </row>
-    <row r="27" spans="1:74" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="23"/>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="23"/>
-      <c r="AE27" s="23"/>
-      <c r="AF27" s="23"/>
-      <c r="AG27" s="23"/>
-      <c r="AH27" s="23"/>
-      <c r="AI27" s="23"/>
-      <c r="AJ27" s="23"/>
-      <c r="AK27" s="23"/>
-      <c r="AL27" s="23"/>
-      <c r="AM27" s="23"/>
-      <c r="AN27" s="23"/>
-      <c r="AO27" s="23"/>
-      <c r="AP27" s="23"/>
-      <c r="AQ27" s="23"/>
-      <c r="AR27" s="23"/>
-      <c r="AS27" s="23"/>
-      <c r="AT27" s="23"/>
-      <c r="AU27" s="23"/>
-      <c r="AV27" s="23"/>
-      <c r="AW27" s="23"/>
-      <c r="AX27" s="23"/>
-      <c r="AY27" s="23"/>
-      <c r="AZ27" s="23"/>
-      <c r="BA27" s="23"/>
-      <c r="BB27" s="23"/>
-      <c r="BC27" s="23"/>
-      <c r="BD27" s="23"/>
-      <c r="BE27" s="23"/>
-      <c r="BF27" s="23"/>
-      <c r="BG27" s="23"/>
-      <c r="BH27" s="24"/>
+      <c r="BH75" s="17"/>
+    </row>
+    <row r="76" spans="1:80" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="22"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="23"/>
+      <c r="P76" s="23"/>
+      <c r="Q76" s="23"/>
+      <c r="R76" s="23"/>
+      <c r="S76" s="23"/>
+      <c r="T76" s="23"/>
+      <c r="U76" s="23"/>
+      <c r="V76" s="23"/>
+      <c r="W76" s="23"/>
+      <c r="X76" s="23"/>
+      <c r="Y76" s="23"/>
+      <c r="Z76" s="23"/>
+      <c r="AA76" s="23"/>
+      <c r="AB76" s="23"/>
+      <c r="AC76" s="23"/>
+      <c r="AD76" s="23"/>
+      <c r="AE76" s="23"/>
+      <c r="AF76" s="23"/>
+      <c r="AG76" s="23"/>
+      <c r="AH76" s="23"/>
+      <c r="AI76" s="23"/>
+      <c r="AJ76" s="23"/>
+      <c r="AK76" s="23"/>
+      <c r="AL76" s="23"/>
+      <c r="AM76" s="23"/>
+      <c r="AN76" s="23"/>
+      <c r="AO76" s="23"/>
+      <c r="AP76" s="23"/>
+      <c r="AQ76" s="23"/>
+      <c r="AR76" s="23"/>
+      <c r="AS76" s="23"/>
+      <c r="AT76" s="23"/>
+      <c r="AU76" s="23"/>
+      <c r="AV76" s="23"/>
+      <c r="AW76" s="23"/>
+      <c r="AX76" s="23"/>
+      <c r="AY76" s="23"/>
+      <c r="AZ76" s="23"/>
+      <c r="BA76" s="23"/>
+      <c r="BB76" s="23"/>
+      <c r="BC76" s="23"/>
+      <c r="BD76" s="23"/>
+      <c r="BE76" s="23"/>
+      <c r="BF76" s="23"/>
+      <c r="BG76" s="23"/>
+      <c r="BH76" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="F5:BC5"/>
-    <mergeCell ref="BP5:BW5"/>
-    <mergeCell ref="BJ3:BO3"/>
+    <mergeCell ref="BX5:CE5"/>
+    <mergeCell ref="CF5:CM5"/>
+    <mergeCell ref="BX7:CE7"/>
+    <mergeCell ref="BJ7:BO7"/>
     <mergeCell ref="BP3:CU3"/>
     <mergeCell ref="F3:BC3"/>
     <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="F8:BC8"/>
-    <mergeCell ref="BD8:BI8"/>
-    <mergeCell ref="BP8:BW8"/>
-    <mergeCell ref="BJ7:BO7"/>
-    <mergeCell ref="BD3:BI3"/>
-    <mergeCell ref="BD4:BI4"/>
     <mergeCell ref="BX4:CE4"/>
     <mergeCell ref="CF4:CM4"/>
-    <mergeCell ref="BX5:CE5"/>
-    <mergeCell ref="CF5:CM5"/>
     <mergeCell ref="CN8:CU8"/>
     <mergeCell ref="CN4:CU4"/>
     <mergeCell ref="CN6:CU6"/>
     <mergeCell ref="CN5:CU5"/>
     <mergeCell ref="CN7:CU7"/>
+    <mergeCell ref="F8:BC8"/>
+    <mergeCell ref="BD8:BI8"/>
+    <mergeCell ref="BP8:BW8"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="F6:BC6"/>
+    <mergeCell ref="F4:BC4"/>
+    <mergeCell ref="BD3:BI3"/>
+    <mergeCell ref="BD4:BI4"/>
     <mergeCell ref="F7:BC7"/>
-    <mergeCell ref="F4:BC4"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="S24:BG24"/>
-    <mergeCell ref="S25:BG25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="H26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="H19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="B22:BG22"/>
-    <mergeCell ref="B23:BG23"/>
-    <mergeCell ref="J16:AD16"/>
-    <mergeCell ref="J17:AD17"/>
-    <mergeCell ref="AF16:AZ16"/>
-    <mergeCell ref="AF17:AZ17"/>
-    <mergeCell ref="BB16:BV16"/>
-    <mergeCell ref="BB17:BV17"/>
-    <mergeCell ref="W13:AQ13"/>
-    <mergeCell ref="AS13:BF13"/>
-    <mergeCell ref="BH13:CB13"/>
-    <mergeCell ref="W14:AQ14"/>
-    <mergeCell ref="AS14:BF14"/>
-    <mergeCell ref="BH14:CB14"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="F5:BC5"/>
+    <mergeCell ref="BP5:BW5"/>
+    <mergeCell ref="BJ3:BO3"/>
+    <mergeCell ref="CF7:CM7"/>
     <mergeCell ref="A1:CU1"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
@@ -5389,8 +5520,32 @@
     <mergeCell ref="BX6:CE6"/>
     <mergeCell ref="CF6:CM6"/>
     <mergeCell ref="BP7:BW7"/>
-    <mergeCell ref="BX7:CE7"/>
-    <mergeCell ref="CF7:CM7"/>
+    <mergeCell ref="BB65:BV65"/>
+    <mergeCell ref="BB66:BV66"/>
+    <mergeCell ref="AS62:BF62"/>
+    <mergeCell ref="BH62:CB62"/>
+    <mergeCell ref="AS63:BF63"/>
+    <mergeCell ref="BH63:CB63"/>
+    <mergeCell ref="W62:AQ62"/>
+    <mergeCell ref="W63:AQ63"/>
+    <mergeCell ref="J65:AD65"/>
+    <mergeCell ref="AF65:AZ65"/>
+    <mergeCell ref="J66:AD66"/>
+    <mergeCell ref="AF66:AZ66"/>
+    <mergeCell ref="H75:R75"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="U75:W75"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="H68:R68"/>
+    <mergeCell ref="S68:T68"/>
+    <mergeCell ref="U68:W68"/>
+    <mergeCell ref="B71:BG71"/>
+    <mergeCell ref="B72:BG72"/>
+    <mergeCell ref="B73:O73"/>
+    <mergeCell ref="S73:BG73"/>
+    <mergeCell ref="B74:O74"/>
+    <mergeCell ref="S74:BG74"/>
+    <mergeCell ref="C75:E75"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
@@ -6382,7 +6537,7 @@
     </row>
     <row r="2" spans="2:36" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="85" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -6404,7 +6559,7 @@
       <c r="T2" s="27"/>
       <c r="U2" s="27"/>
       <c r="V2" s="107" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="W2" s="107"/>
       <c r="X2" s="107"/>
@@ -6631,7 +6786,7 @@
       <c r="M8" s="85"/>
       <c r="N8" s="85"/>
       <c r="O8" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Z8" s="26">
         <v>9</v>
@@ -6698,7 +6853,7 @@
       <c r="L11" s="85"/>
       <c r="M11" s="85"/>
       <c r="N11" s="102" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O11" s="85"/>
       <c r="P11" s="85"/>
@@ -6862,7 +7017,7 @@
     </row>
     <row r="16" spans="2:36" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="100" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" s="100"/>
       <c r="D16" s="100"/>
@@ -8845,7 +9000,7 @@
       <c r="AJ48" s="86"/>
       <c r="AL48" s="36"/>
       <c r="AM48" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="15:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/MBDOU_INF/templates/plan_template.xlsx
+++ b/MBDOU_INF/templates/plan_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MBDOU\MBDOU_INF\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D63E3E7-1F7E-4ABB-9C4C-7B63ECCC6B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB399AD-BD7F-432B-96C7-1D032212F907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Листы1-5" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>КОДЫ</t>
   </si>
@@ -95,32 +95,6 @@
   </si>
   <si>
     <t>(на 20</t>
-  </si>
-  <si>
-    <r>
-      <t>годов</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>Орган, осуществляющий</t>
@@ -261,22 +235,6 @@
     <t>(второй год</t>
   </si>
   <si>
-    <r>
-      <t>Раздел 2. Сведения по выплатам на закупки товаров, работ, услуг</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
     <t>Руководитель учреждения</t>
   </si>
   <si>
@@ -296,21 +254,6 @@
   </si>
   <si>
     <t>г. и плановый период 20</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> г.</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
   </si>
   <si>
     <r>
@@ -334,9 +277,6 @@
     <t>(телефон)</t>
   </si>
   <si>
-    <t>ДДО Мэрии г. Грозного</t>
-  </si>
-  <si>
     <t>января</t>
   </si>
   <si>
@@ -359,13 +299,19 @@
   </si>
   <si>
     <t>на 20 __ г.</t>
+  </si>
+  <si>
+    <t>годов)</t>
+  </si>
+  <si>
+    <t>Раздел 2. Сведения по выплатам на закупки товаров, работ, услуг</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -404,31 +350,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -823,7 +746,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -836,17 +759,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -897,11 +820,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1352,8 +1275,8 @@
   </sheetPr>
   <dimension ref="A1:CU31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BU28" sqref="BU28:CC28"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BF16" sqref="BF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1370,7 +1293,7 @@
     </row>
     <row r="2" spans="1:99" x14ac:dyDescent="0.2">
       <c r="BQ2" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BR2" s="44"/>
       <c r="BS2" s="44"/>
@@ -1438,7 +1361,7 @@
     </row>
     <row r="4" spans="1:99" s="10" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
       <c r="BQ4" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR4" s="46"/>
       <c r="BS4" s="46"/>
@@ -1473,9 +1396,7 @@
     </row>
     <row r="5" spans="1:99" s="10" customFormat="1" ht="10.5" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="BQ6" s="45" t="s">
-        <v>74</v>
-      </c>
+      <c r="BQ6" s="45"/>
       <c r="BR6" s="45"/>
       <c r="BS6" s="45"/>
       <c r="BT6" s="45"/>
@@ -1509,7 +1430,7 @@
     </row>
     <row r="7" spans="1:99" s="10" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
       <c r="BQ7" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BR7" s="46"/>
       <c r="BS7" s="46"/>
@@ -1622,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="BW10" s="28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="BX10" s="28"/>
       <c r="BY10" s="28"/>
@@ -1760,7 +1681,7 @@
       <c r="AK13" s="27"/>
       <c r="AL13" s="27"/>
       <c r="BD13" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BE13" s="27"/>
       <c r="BF13" s="27"/>
@@ -1772,7 +1693,7 @@
       <c r="BL13" s="27"/>
       <c r="BM13" s="27"/>
       <c r="BN13" s="5" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="BT13" s="7"/>
       <c r="BU13" s="7"/>
@@ -1832,7 +1753,7 @@
         <v>5</v>
       </c>
       <c r="AS15" s="28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AT15" s="28"/>
       <c r="AU15" s="28"/>
@@ -1852,7 +1773,7 @@
       <c r="BG15" s="30"/>
       <c r="BH15" s="30"/>
       <c r="BI15" s="2" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="CF15" s="3" t="s">
         <v>3</v>
@@ -1874,7 +1795,7 @@
     </row>
     <row r="16" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CF16" s="3" t="s">
         <v>2</v>
@@ -1896,7 +1817,7 @@
     </row>
     <row r="17" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U17" s="45"/>
       <c r="V17" s="45"/>
@@ -1950,7 +1871,7 @@
       <c r="BR17" s="45"/>
       <c r="BS17" s="45"/>
       <c r="CF17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="CH17" s="41"/>
       <c r="CI17" s="42"/>
@@ -2064,10 +1985,10 @@
       <c r="BR19" s="9"/>
       <c r="BS19" s="9"/>
       <c r="CF19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CH19" s="54" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="CI19" s="55"/>
       <c r="CJ19" s="55"/>
@@ -2085,7 +2006,7 @@
     </row>
     <row r="20" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20" s="68"/>
       <c r="J20" s="68"/>
@@ -2151,10 +2072,10 @@
       <c r="BR20" s="68"/>
       <c r="BS20" s="68"/>
       <c r="CF20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CH20" s="54" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="CI20" s="55"/>
       <c r="CJ20" s="55"/>
@@ -2196,7 +2117,7 @@
     </row>
     <row r="23" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -2299,7 +2220,7 @@
     </row>
     <row r="25" spans="1:99" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="58"/>
       <c r="C25" s="58"/>
@@ -2354,7 +2275,7 @@
       <c r="AX25" s="35"/>
       <c r="AY25" s="36"/>
       <c r="AZ25" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA25" s="35"/>
       <c r="BB25" s="35"/>
@@ -2362,7 +2283,7 @@
       <c r="BD25" s="35"/>
       <c r="BE25" s="36"/>
       <c r="BF25" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BG25" s="35"/>
       <c r="BH25" s="35"/>
@@ -2370,7 +2291,7 @@
       <c r="BJ25" s="35"/>
       <c r="BK25" s="36"/>
       <c r="BL25" s="66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BM25" s="67"/>
       <c r="BN25" s="67"/>
@@ -2457,13 +2378,13 @@
       <c r="AT26" s="61"/>
       <c r="AU26" s="62"/>
       <c r="AV26" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW26" s="31"/>
       <c r="AX26" s="31"/>
       <c r="AY26" s="32"/>
       <c r="AZ26" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BA26" s="31"/>
       <c r="BB26" s="31"/>
@@ -2471,7 +2392,7 @@
       <c r="BD26" s="31"/>
       <c r="BE26" s="32"/>
       <c r="BF26" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BG26" s="31"/>
       <c r="BH26" s="31"/>
@@ -2479,7 +2400,7 @@
       <c r="BJ26" s="31"/>
       <c r="BK26" s="32"/>
       <c r="BL26" s="33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="BM26" s="31"/>
       <c r="BN26" s="31"/>
@@ -2490,7 +2411,7 @@
       <c r="BS26" s="31"/>
       <c r="BT26" s="32"/>
       <c r="BU26" s="33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="BV26" s="31"/>
       <c r="BW26" s="31"/>
@@ -2501,7 +2422,7 @@
       <c r="CB26" s="31"/>
       <c r="CC26" s="32"/>
       <c r="CD26" s="33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="CE26" s="31"/>
       <c r="CF26" s="31"/>
@@ -2512,7 +2433,7 @@
       <c r="CK26" s="31"/>
       <c r="CL26" s="32"/>
       <c r="CM26" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="CN26" s="31"/>
       <c r="CO26" s="31"/>
@@ -2576,7 +2497,7 @@
       <c r="AX27" s="31"/>
       <c r="AY27" s="32"/>
       <c r="AZ27" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BA27" s="31"/>
       <c r="BB27" s="31"/>
@@ -2584,7 +2505,7 @@
       <c r="BD27" s="31"/>
       <c r="BE27" s="32"/>
       <c r="BF27" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BG27" s="31"/>
       <c r="BH27" s="31"/>
@@ -2592,7 +2513,7 @@
       <c r="BJ27" s="31"/>
       <c r="BK27" s="32"/>
       <c r="BL27" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BM27" s="31"/>
       <c r="BN27" s="31"/>
@@ -2603,7 +2524,7 @@
       <c r="BS27" s="31"/>
       <c r="BT27" s="32"/>
       <c r="BU27" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BV27" s="31"/>
       <c r="BW27" s="31"/>
@@ -2614,7 +2535,7 @@
       <c r="CB27" s="31"/>
       <c r="CC27" s="32"/>
       <c r="CD27" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="CE27" s="31"/>
       <c r="CF27" s="31"/>
@@ -2625,7 +2546,7 @@
       <c r="CK27" s="31"/>
       <c r="CL27" s="32"/>
       <c r="CM27" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="CN27" s="31"/>
       <c r="CO27" s="31"/>
@@ -2689,7 +2610,7 @@
       <c r="AX28" s="31"/>
       <c r="AY28" s="32"/>
       <c r="AZ28" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BA28" s="31"/>
       <c r="BB28" s="31"/>
@@ -2703,7 +2624,7 @@
       <c r="BJ28" s="31"/>
       <c r="BK28" s="32"/>
       <c r="BL28" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BM28" s="31"/>
       <c r="BN28" s="31"/>
@@ -2714,7 +2635,7 @@
       <c r="BS28" s="31"/>
       <c r="BT28" s="32"/>
       <c r="BU28" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BV28" s="31"/>
       <c r="BW28" s="31"/>
@@ -2725,7 +2646,7 @@
       <c r="CB28" s="31"/>
       <c r="CC28" s="32"/>
       <c r="CD28" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CE28" s="31"/>
       <c r="CF28" s="31"/>
@@ -2736,7 +2657,7 @@
       <c r="CK28" s="31"/>
       <c r="CL28" s="32"/>
       <c r="CM28" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CN28" s="31"/>
       <c r="CO28" s="31"/>
@@ -2814,7 +2735,7 @@
       <c r="BJ29" s="31"/>
       <c r="BK29" s="32"/>
       <c r="BL29" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BM29" s="31"/>
       <c r="BN29" s="31"/>
@@ -2825,7 +2746,7 @@
       <c r="BS29" s="31"/>
       <c r="BT29" s="32"/>
       <c r="BU29" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BV29" s="31"/>
       <c r="BW29" s="31"/>
@@ -2836,7 +2757,7 @@
       <c r="CB29" s="31"/>
       <c r="CC29" s="32"/>
       <c r="CD29" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CE29" s="31"/>
       <c r="CF29" s="31"/>
@@ -2847,7 +2768,7 @@
       <c r="CK29" s="31"/>
       <c r="CL29" s="32"/>
       <c r="CM29" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="CN29" s="31"/>
       <c r="CO29" s="31"/>
@@ -2911,7 +2832,7 @@
       <c r="AX30" s="31"/>
       <c r="AY30" s="32"/>
       <c r="AZ30" s="33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="BA30" s="31"/>
       <c r="BB30" s="31"/>
@@ -2925,7 +2846,7 @@
       <c r="BJ30" s="31"/>
       <c r="BK30" s="32"/>
       <c r="BL30" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BM30" s="31"/>
       <c r="BN30" s="31"/>
@@ -2936,7 +2857,7 @@
       <c r="BS30" s="31"/>
       <c r="BT30" s="32"/>
       <c r="BU30" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BV30" s="31"/>
       <c r="BW30" s="31"/>
@@ -2947,7 +2868,7 @@
       <c r="CB30" s="31"/>
       <c r="CC30" s="32"/>
       <c r="CD30" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="CE30" s="31"/>
       <c r="CF30" s="31"/>
@@ -3182,8 +3103,8 @@
   </sheetPr>
   <dimension ref="A1:CU76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:BG71"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3206,7 +3127,7 @@
   <sheetData>
     <row r="1" spans="1:99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -3309,14 +3230,14 @@
     </row>
     <row r="3" spans="1:99" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
       <c r="D3" s="58"/>
       <c r="E3" s="59"/>
       <c r="F3" s="58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="58"/>
       <c r="H3" s="58"/>
@@ -3368,7 +3289,7 @@
       <c r="BB3" s="58"/>
       <c r="BC3" s="59"/>
       <c r="BD3" s="57" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="BE3" s="58"/>
       <c r="BF3" s="58"/>
@@ -3376,7 +3297,7 @@
       <c r="BH3" s="58"/>
       <c r="BI3" s="59"/>
       <c r="BJ3" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BK3" s="58"/>
       <c r="BL3" s="58"/>
@@ -3384,7 +3305,7 @@
       <c r="BN3" s="58"/>
       <c r="BO3" s="59"/>
       <c r="BP3" s="72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BQ3" s="73"/>
       <c r="BR3" s="73"/>
@@ -3420,7 +3341,7 @@
     </row>
     <row r="4" spans="1:99" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -3477,7 +3398,7 @@
       <c r="BB4" s="61"/>
       <c r="BC4" s="62"/>
       <c r="BD4" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BE4" s="61"/>
       <c r="BF4" s="61"/>
@@ -3485,7 +3406,7 @@
       <c r="BH4" s="61"/>
       <c r="BI4" s="62"/>
       <c r="BJ4" s="60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BK4" s="61"/>
       <c r="BL4" s="61"/>
@@ -3493,7 +3414,7 @@
       <c r="BN4" s="61"/>
       <c r="BO4" s="62"/>
       <c r="BP4" s="60" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="BQ4" s="61"/>
       <c r="BR4" s="61"/>
@@ -3503,7 +3424,7 @@
       <c r="BV4" s="61"/>
       <c r="BW4" s="62"/>
       <c r="BX4" s="60" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BY4" s="61"/>
       <c r="BZ4" s="61"/>
@@ -3513,7 +3434,7 @@
       <c r="CD4" s="61"/>
       <c r="CE4" s="62"/>
       <c r="CF4" s="60" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="CG4" s="61"/>
       <c r="CH4" s="61"/>
@@ -3523,7 +3444,7 @@
       <c r="CL4" s="61"/>
       <c r="CM4" s="62"/>
       <c r="CN4" s="60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="CO4" s="61"/>
       <c r="CP4" s="61"/>
@@ -3596,7 +3517,7 @@
       <c r="BH5" s="61"/>
       <c r="BI5" s="62"/>
       <c r="BJ5" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BK5" s="61"/>
       <c r="BL5" s="61"/>
@@ -3604,7 +3525,7 @@
       <c r="BN5" s="61"/>
       <c r="BO5" s="62"/>
       <c r="BP5" s="60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ5" s="61"/>
       <c r="BR5" s="61"/>
@@ -3614,7 +3535,7 @@
       <c r="BV5" s="61"/>
       <c r="BW5" s="62"/>
       <c r="BX5" s="60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BY5" s="61"/>
       <c r="BZ5" s="61"/>
@@ -3624,7 +3545,7 @@
       <c r="CD5" s="61"/>
       <c r="CE5" s="62"/>
       <c r="CF5" s="60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="CG5" s="61"/>
       <c r="CH5" s="61"/>
@@ -3634,7 +3555,7 @@
       <c r="CL5" s="61"/>
       <c r="CM5" s="62"/>
       <c r="CN5" s="60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="CO5" s="61"/>
       <c r="CP5" s="61"/>
@@ -3713,7 +3634,7 @@
       <c r="BN6" s="61"/>
       <c r="BO6" s="62"/>
       <c r="BP6" s="60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BQ6" s="61"/>
       <c r="BR6" s="61"/>
@@ -3723,7 +3644,7 @@
       <c r="BV6" s="61"/>
       <c r="BW6" s="62"/>
       <c r="BX6" s="60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BY6" s="61"/>
       <c r="BZ6" s="61"/>
@@ -3733,7 +3654,7 @@
       <c r="CD6" s="61"/>
       <c r="CE6" s="62"/>
       <c r="CF6" s="60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CG6" s="61"/>
       <c r="CH6" s="61"/>
@@ -3743,7 +3664,7 @@
       <c r="CL6" s="61"/>
       <c r="CM6" s="62"/>
       <c r="CN6" s="60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CO6" s="61"/>
       <c r="CP6" s="61"/>
@@ -3822,7 +3743,7 @@
       <c r="BN7" s="61"/>
       <c r="BO7" s="62"/>
       <c r="BP7" s="60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BQ7" s="61"/>
       <c r="BR7" s="61"/>
@@ -3832,7 +3753,7 @@
       <c r="BV7" s="61"/>
       <c r="BW7" s="62"/>
       <c r="BX7" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BY7" s="61"/>
       <c r="BZ7" s="61"/>
@@ -3842,7 +3763,7 @@
       <c r="CD7" s="61"/>
       <c r="CE7" s="62"/>
       <c r="CF7" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CG7" s="61"/>
       <c r="CH7" s="61"/>
@@ -3852,7 +3773,7 @@
       <c r="CL7" s="61"/>
       <c r="CM7" s="62"/>
       <c r="CN7" s="60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="CO7" s="61"/>
       <c r="CP7" s="61"/>
@@ -4072,12 +3993,12 @@
     </row>
     <row r="61" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W62" s="45"/>
       <c r="X62" s="45"/>
@@ -4228,7 +4149,7 @@
     </row>
     <row r="65" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J65" s="45"/>
       <c r="K65" s="45"/>
@@ -4329,7 +4250,7 @@
       <c r="AD66" s="47"/>
       <c r="AE66" s="11"/>
       <c r="AF66" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AG66" s="47"/>
       <c r="AH66" s="47"/>
@@ -4353,7 +4274,7 @@
       <c r="AZ66" s="47"/>
       <c r="BA66" s="11"/>
       <c r="BB66" s="47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="BC66" s="47"/>
       <c r="BD66" s="47"/>
@@ -4418,7 +4339,7 @@
     <row r="70" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A70" s="13"/>
       <c r="B70" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
@@ -4544,7 +4465,7 @@
     <row r="72" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A72" s="18"/>
       <c r="B72" s="47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C72" s="47"/>
       <c r="D72" s="47"/>
